--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_5_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_5_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>584214.1618853519</v>
+        <v>650059.4189487717</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>405687.0519298024</v>
+        <v>404724.22609448</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11773978.35958493</v>
+        <v>11762410.58428957</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7911793.840280784</v>
+        <v>7904440.258261663</v>
       </c>
     </row>
     <row r="11">
@@ -661,19 +661,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>241.0142888776591</v>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
     </row>
     <row r="3">
@@ -791,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -803,10 +803,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>35.40726547353844</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="4">
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -901,25 +901,25 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>68.3854176612075</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -986,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>63.20528886273613</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>10.0362493746554</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,22 +1022,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>120.9273370453295</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1211,13 +1211,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>86.51901279370522</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -1226,16 +1226,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1268,10 +1268,10 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>115.5973888991589</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1350,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1375,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>414.2926691378088</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1417,25 +1417,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S11" t="n">
-        <v>186.0031364379248</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T11" t="n">
-        <v>218.674275242386</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>116.7637625952824</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>226.2350166920998</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>136.8030829366063</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>66.60350559207139</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>87.10084268275168</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>197.9863995095175</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9058271976456</v>
+        <v>175.7569470849743</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1514,7 +1514,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1536,13 +1536,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>29.71014592494667</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>84.39134579802109</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>216.1206161765721</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1609,25 +1609,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>340.9142329232977</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>414.2926691378088</v>
+        <v>413.9934051322452</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>326.065601849496</v>
       </c>
       <c r="I14" t="n">
-        <v>152.6082983616854</v>
+        <v>159.9978528790433</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,13 +1654,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>67.62176764444247</v>
       </c>
       <c r="S14" t="n">
-        <v>186.0031364379248</v>
+        <v>179.1836579111419</v>
       </c>
       <c r="T14" t="n">
-        <v>218.674275242386</v>
+        <v>217.3642470580309</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1694,13 +1694,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>79.21484845108742</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>132.9332591811862</v>
+        <v>136.6429625774031</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>66.60350559207139</v>
+        <v>56.66199767592526</v>
       </c>
       <c r="S15" t="n">
-        <v>161.6448423772186</v>
+        <v>158.6706769332459</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>197.341002096764</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.8952929634875</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1.626936801408992</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>48.3998957970083</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>157.0053510520544</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>137.788117693706</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1846,25 +1846,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>26.46812910248612</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>171.5352284535379</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,13 +1891,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>86.42041023393331</v>
+        <v>67.62176764444244</v>
       </c>
       <c r="S17" t="n">
-        <v>97.00819490572218</v>
+        <v>179.1836579111419</v>
       </c>
       <c r="T17" t="n">
-        <v>218.674275242386</v>
+        <v>217.3642470580309</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1906,13 +1906,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1931,19 +1931,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>96.28178133723726</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>123.3009780649958</v>
       </c>
       <c r="G18" t="n">
-        <v>136.8030829366063</v>
+        <v>136.6429625774031</v>
       </c>
       <c r="H18" t="n">
-        <v>107.0159873637655</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>70.78957724245151</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,19 +1973,19 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>161.6448423772186</v>
+        <v>158.6706769332458</v>
       </c>
       <c r="T18" t="n">
-        <v>197.9863995095175</v>
+        <v>197.341002096764</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.8952929634875</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>78.22427286268494</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>193.8209438199395</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2095,13 +2095,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>414.2926691378088</v>
+        <v>413.9934051322451</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>171.5352284535379</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,28 +2128,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>86.42041023393331</v>
+        <v>67.62176764444244</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>179.1836579111419</v>
       </c>
       <c r="T20" t="n">
-        <v>218.674275242386</v>
+        <v>217.3642470580309</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2648474376504</v>
+        <v>251.2409063172053</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>147.5200004702443</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>227.3532418003451</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2168,19 +2168,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>136.6429625774031</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>70.78957724245151</v>
+        <v>65.27666136637444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,19 +2207,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>66.60350559207139</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>161.6448423772186</v>
+        <v>71.62578123848374</v>
       </c>
       <c r="T21" t="n">
-        <v>197.9863995095175</v>
+        <v>197.341002096764</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9058271976456</v>
+        <v>225.8952929634875</v>
       </c>
       <c r="V21" t="n">
-        <v>28.69712283639779</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>17.64693460968148</v>
       </c>
       <c r="H22" t="n">
-        <v>158.1988625129318</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,19 +2289,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>216.1206161765721</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>106.0244634670265</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2869936420407</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2320,25 +2320,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>125.8612289152297</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>95.04397879875968</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2408,13 +2408,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933836</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>136.5310119231965</v>
       </c>
       <c r="H24" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I24" t="n">
         <v>61.42221998250818</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>101.780687729549</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>76.13478216561057</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2538,13 +2538,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>96.6392588742179</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2569,10 +2569,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>181.8745616200805</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
         <v>251.2241675082893</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2724,10 +2724,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>10.46499054460254</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2766,13 +2766,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2800,19 +2800,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>71.75946593063541</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,10 +2845,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>124.8127210110325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2876,7 +2876,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646384</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -2891,7 +2891,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>33.77936158462986</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3006,10 +3006,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3037,19 +3037,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,28 +3076,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>125.571169414241</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>133.7542698189851</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3128,7 +3128,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S33" t="n">
-        <v>156.5912426325226</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T33" t="n">
         <v>196.8897623984489</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3195,13 +3195,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>120.4120358099645</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3252,10 +3252,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>205.0849044383765</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3271,22 +3271,22 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>4.553858340637828</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,16 +3313,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S35" t="n">
-        <v>121.8539513041225</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229251</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3438,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>153.055538822593</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3480,13 +3480,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3511,16 +3511,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>162.4608466928088</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3550,16 +3550,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>80.82857834237332</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3602,7 +3602,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3666,16 +3666,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,19 +3711,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>94.63926978364034</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3742,25 +3742,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>256.0137754118239</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,10 +3787,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>216.4483203576578</v>
@@ -3799,13 +3799,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>47.40419526769212</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3979,19 +3979,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>355.5467565582655</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4024,28 +4024,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>39.96813536721582</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4076,7 +4076,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229251</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>128.7835007017901</v>
-      </c>
-      <c r="C46" t="n">
-        <v>0</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C2" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D2" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E2" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F2" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G2" t="n">
         <v>262.7299197543128</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X2" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y2" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="3">
@@ -4415,13 +4415,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>383.2428491569326</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>621.8469951458151</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O3" t="n">
         <v>712.019119383956</v>
@@ -4439,19 +4439,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>533.6469426057913</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V3" t="n">
-        <v>298.4948343740486</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W3" t="n">
-        <v>55.04605772994853</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X3" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y3" t="n">
         <v>19.28114311021272</v>
@@ -4515,16 +4515,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
         <v>19.28114311021272</v>
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>343.8760884571613</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="C5" t="n">
-        <v>343.8760884571613</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="D5" t="n">
-        <v>343.8760884571613</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="E5" t="n">
-        <v>343.8760884571613</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="F5" t="n">
-        <v>343.8760884571613</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="G5" t="n">
-        <v>100.4273118130612</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>100.4273118130612</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4597,22 +4597,22 @@
         <v>812.6742080953335</v>
       </c>
       <c r="T5" t="n">
-        <v>587.3248651012614</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U5" t="n">
-        <v>587.3248651012614</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V5" t="n">
-        <v>587.3248651012614</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W5" t="n">
-        <v>587.3248651012614</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X5" t="n">
-        <v>587.3248651012614</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y5" t="n">
-        <v>343.8760884571613</v>
+        <v>569.2254314512334</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>317.2409336147255</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="C6" t="n">
-        <v>142.7879043335984</v>
+        <v>286.7936339694528</v>
       </c>
       <c r="D6" t="n">
-        <v>142.7879043335984</v>
+        <v>286.7936339694528</v>
       </c>
       <c r="E6" t="n">
-        <v>142.7879043335984</v>
+        <v>286.7936339694528</v>
       </c>
       <c r="F6" t="n">
-        <v>142.7879043335984</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="G6" t="n">
-        <v>142.7879043335984</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H6" t="n">
-        <v>29.41876874117777</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I6" t="n">
         <v>19.28114311021272</v>
@@ -4652,10 +4652,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M6" t="n">
-        <v>249.2442489785619</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N6" t="n">
         <v>473.4149733950735</v>
@@ -4670,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="V6" t="n">
-        <v>728.9050472788936</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="W6" t="n">
-        <v>485.4562706347935</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="X6" t="n">
-        <v>485.4562706347935</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="Y6" t="n">
-        <v>485.4562706347935</v>
+        <v>461.2466632505798</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I7" t="n">
         <v>19.28114311021272</v>
@@ -4764,13 +4764,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>366.1018663125844</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="C8" t="n">
-        <v>366.1018663125844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D8" t="n">
-        <v>366.1018663125844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E8" t="n">
-        <v>366.1018663125844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F8" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G8" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4828,28 +4828,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>591.4512093066566</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T8" t="n">
-        <v>366.1018663125844</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U8" t="n">
-        <v>366.1018663125844</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="V8" t="n">
-        <v>366.1018663125844</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="W8" t="n">
-        <v>366.1018663125844</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="X8" t="n">
-        <v>366.1018663125844</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="Y8" t="n">
-        <v>366.1018663125844</v>
+        <v>30.58726043968704</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>577.9072497513741</v>
+        <v>648.4405950311615</v>
       </c>
       <c r="C9" t="n">
-        <v>577.9072497513741</v>
+        <v>473.9875657500345</v>
       </c>
       <c r="D9" t="n">
-        <v>577.9072497513741</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E9" t="n">
-        <v>418.6697947459187</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F9" t="n">
-        <v>272.1352367728036</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4892,10 +4892,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>374.6018090363993</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N9" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
         <v>781.4136778972854</v>
@@ -4907,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>862.8876260635219</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V9" t="n">
-        <v>746.1225867714422</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W9" t="n">
-        <v>746.1225867714422</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="X9" t="n">
-        <v>746.1225867714422</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="Y9" t="n">
-        <v>746.1225867714422</v>
+        <v>735.8335372470253</v>
       </c>
     </row>
     <row r="10">
@@ -4998,10 +4998,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
         <v>19.28114311021272</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1229.916923685903</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="C11" t="n">
-        <v>1229.916923685903</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="D11" t="n">
-        <v>871.6512250791529</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="E11" t="n">
-        <v>871.6512250791529</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="F11" t="n">
-        <v>460.6653202895453</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="G11" t="n">
-        <v>42.18787671600102</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="H11" t="n">
-        <v>42.18787671600102</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I11" t="n">
-        <v>42.18787671600102</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J11" t="n">
-        <v>115.2290882856227</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K11" t="n">
-        <v>345.4437346953284</v>
+        <v>142.8373253438683</v>
       </c>
       <c r="L11" t="n">
-        <v>683.321988080341</v>
+        <v>344.9085595412869</v>
       </c>
       <c r="M11" t="n">
-        <v>1075.883192613821</v>
+        <v>586.3582880173957</v>
       </c>
       <c r="N11" t="n">
-        <v>1460.164450300943</v>
+        <v>817.0829279823544</v>
       </c>
       <c r="O11" t="n">
-        <v>1777.842707170707</v>
+        <v>989.7620250901066</v>
       </c>
       <c r="P11" t="n">
-        <v>2011.299366755286</v>
+        <v>1099.465256491931</v>
       </c>
       <c r="Q11" t="n">
-        <v>2109.393835800051</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R11" t="n">
-        <v>2109.393835800051</v>
+        <v>962.1762753293418</v>
       </c>
       <c r="S11" t="n">
-        <v>1921.511879802147</v>
+        <v>754.2855273228794</v>
       </c>
       <c r="T11" t="n">
-        <v>1700.628773496707</v>
+        <v>529.5587134138201</v>
       </c>
       <c r="U11" t="n">
-        <v>1700.628773496707</v>
+        <v>529.5587134138201</v>
       </c>
       <c r="V11" t="n">
-        <v>1582.685578956017</v>
+        <v>529.5587134138201</v>
       </c>
       <c r="W11" t="n">
-        <v>1229.916923685903</v>
+        <v>529.5587134138201</v>
       </c>
       <c r="X11" t="n">
-        <v>1229.916923685903</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="Y11" t="n">
-        <v>1229.916923685903</v>
+        <v>301.0384945329112</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>660.5978512348969</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="C12" t="n">
-        <v>486.1448219537698</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D12" t="n">
-        <v>486.1448219537698</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E12" t="n">
-        <v>326.9073669483143</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F12" t="n">
-        <v>180.3728089751993</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G12" t="n">
-        <v>42.18787671600102</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H12" t="n">
-        <v>42.18787671600102</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I12" t="n">
-        <v>42.18787671600102</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J12" t="n">
-        <v>91.99734226147163</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K12" t="n">
-        <v>303.7504955284376</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="L12" t="n">
-        <v>649.8831383448789</v>
+        <v>268.2479876888894</v>
       </c>
       <c r="M12" t="n">
-        <v>1105.782828129934</v>
+        <v>541.6429362542212</v>
       </c>
       <c r="N12" t="n">
-        <v>1589.455839519192</v>
+        <v>815.0378848195531</v>
       </c>
       <c r="O12" t="n">
-        <v>1965.506473496562</v>
+        <v>1081.534698402837</v>
       </c>
       <c r="P12" t="n">
-        <v>2109.393835800051</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Q12" t="n">
-        <v>2109.393835800051</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R12" t="n">
-        <v>2042.117567525231</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S12" t="n">
-        <v>1954.136918350735</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T12" t="n">
-        <v>1754.150656219909</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U12" t="n">
-        <v>1525.962951979863</v>
+        <v>927.0937850266196</v>
       </c>
       <c r="V12" t="n">
-        <v>1290.81084374812</v>
+        <v>691.9416767948769</v>
       </c>
       <c r="W12" t="n">
-        <v>1036.573487019919</v>
+        <v>437.7043200666752</v>
       </c>
       <c r="X12" t="n">
-        <v>1036.573487019919</v>
+        <v>229.8528198611424</v>
       </c>
       <c r="Y12" t="n">
-        <v>828.8131882549649</v>
+        <v>22.09252109618844</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>127.4316603503658</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="C13" t="n">
-        <v>127.4316603503658</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="D13" t="n">
-        <v>127.4316603503658</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="E13" t="n">
-        <v>127.4316603503658</v>
+        <v>168.9824685940988</v>
       </c>
       <c r="F13" t="n">
-        <v>127.4316603503658</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G13" t="n">
-        <v>42.18787671600102</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H13" t="n">
-        <v>42.18787671600102</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I13" t="n">
-        <v>42.18787671600102</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J13" t="n">
-        <v>42.18787671600102</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K13" t="n">
-        <v>72.25456008701799</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="L13" t="n">
-        <v>166.255997808103</v>
+        <v>58.70189726492715</v>
       </c>
       <c r="M13" t="n">
-        <v>275.7564570053805</v>
+        <v>107.6904745160687</v>
       </c>
       <c r="N13" t="n">
-        <v>388.0878564503602</v>
+        <v>160.9488293168851</v>
       </c>
       <c r="O13" t="n">
-        <v>475.8277896871617</v>
+        <v>194.1252445754623</v>
       </c>
       <c r="P13" t="n">
-        <v>527.3837778842137</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Q13" t="n">
-        <v>527.3837778842137</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="R13" t="n">
-        <v>527.3837778842137</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="S13" t="n">
-        <v>309.0801251806055</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="T13" t="n">
-        <v>309.0801251806055</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="U13" t="n">
-        <v>309.0801251806055</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="V13" t="n">
-        <v>309.0801251806055</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="W13" t="n">
-        <v>309.0801251806055</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="X13" t="n">
-        <v>309.0801251806055</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Y13" t="n">
-        <v>309.0801251806055</v>
+        <v>198.9927170031359</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1369.565886153136</v>
+        <v>1302.61219416626</v>
       </c>
       <c r="C14" t="n">
-        <v>1000.603369212724</v>
+        <v>1302.61219416626</v>
       </c>
       <c r="D14" t="n">
-        <v>1000.603369212724</v>
+        <v>1302.61219416626</v>
       </c>
       <c r="E14" t="n">
-        <v>614.8151166144801</v>
+        <v>958.2543831326261</v>
       </c>
       <c r="F14" t="n">
-        <v>614.8151166144801</v>
+        <v>958.2543831326261</v>
       </c>
       <c r="G14" t="n">
-        <v>196.3376730409358</v>
+        <v>540.0792264333885</v>
       </c>
       <c r="H14" t="n">
-        <v>196.3376730409358</v>
+        <v>210.7200326460188</v>
       </c>
       <c r="I14" t="n">
-        <v>42.18787671600102</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="J14" t="n">
-        <v>115.2290882856225</v>
+        <v>147.292913216816</v>
       </c>
       <c r="K14" t="n">
-        <v>345.4437346953283</v>
+        <v>415.1943883367684</v>
       </c>
       <c r="L14" t="n">
-        <v>683.3219880803408</v>
+        <v>799.8264852341947</v>
       </c>
       <c r="M14" t="n">
-        <v>1075.883192613821</v>
+        <v>1244.410349176442</v>
       </c>
       <c r="N14" t="n">
-        <v>1460.164450300943</v>
+        <v>1681.556047289582</v>
       </c>
       <c r="O14" t="n">
-        <v>1777.842707170707</v>
+        <v>2049.152696194594</v>
       </c>
       <c r="P14" t="n">
-        <v>2011.299366755286</v>
+        <v>2325.213548478439</v>
       </c>
       <c r="Q14" t="n">
-        <v>2109.393835800051</v>
+        <v>2455.301991945213</v>
       </c>
       <c r="R14" t="n">
-        <v>2109.393835800051</v>
+        <v>2386.997176142746</v>
       </c>
       <c r="S14" t="n">
-        <v>1921.511879802147</v>
+        <v>2206.003582293108</v>
       </c>
       <c r="T14" t="n">
-        <v>1700.628773496707</v>
+        <v>1986.443736779945</v>
       </c>
       <c r="U14" t="n">
-        <v>1700.628773496707</v>
+        <v>1986.443736779945</v>
       </c>
       <c r="V14" t="n">
-        <v>1369.565886153136</v>
+        <v>1655.380849436374</v>
       </c>
       <c r="W14" t="n">
-        <v>1369.565886153136</v>
+        <v>1302.61219416626</v>
       </c>
       <c r="X14" t="n">
-        <v>1369.565886153136</v>
+        <v>1302.61219416626</v>
       </c>
       <c r="Y14" t="n">
-        <v>1369.565886153136</v>
+        <v>1302.61219416626</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>805.6233480118854</v>
+        <v>737.0662297124688</v>
       </c>
       <c r="C15" t="n">
-        <v>631.1703187307584</v>
+        <v>562.6132004313419</v>
       </c>
       <c r="D15" t="n">
-        <v>482.2359090695071</v>
+        <v>413.6787907700906</v>
       </c>
       <c r="E15" t="n">
-        <v>322.9984540640516</v>
+        <v>333.6637923346487</v>
       </c>
       <c r="F15" t="n">
-        <v>176.4638960909366</v>
+        <v>187.1292343615337</v>
       </c>
       <c r="G15" t="n">
-        <v>42.18787671600102</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="H15" t="n">
-        <v>42.18787671600102</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="I15" t="n">
-        <v>42.18787671600102</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="J15" t="n">
-        <v>91.99734226147163</v>
+        <v>113.8920892923635</v>
       </c>
       <c r="K15" t="n">
-        <v>91.99734226147163</v>
+        <v>351.2426098932701</v>
       </c>
       <c r="L15" t="n">
-        <v>438.1299850779129</v>
+        <v>731.7940720015258</v>
       </c>
       <c r="M15" t="n">
-        <v>894.0296748629684</v>
+        <v>1227.858900469303</v>
       </c>
       <c r="N15" t="n">
-        <v>1377.702686252226</v>
+        <v>1726.454692916938</v>
       </c>
       <c r="O15" t="n">
-        <v>1753.753320229596</v>
+        <v>2140.221066519054</v>
       </c>
       <c r="P15" t="n">
-        <v>1971.703181875404</v>
+        <v>2455.301991945213</v>
       </c>
       <c r="Q15" t="n">
-        <v>2109.393835800051</v>
+        <v>2455.301991945213</v>
       </c>
       <c r="R15" t="n">
-        <v>2042.117567525231</v>
+        <v>2398.06765085842</v>
       </c>
       <c r="S15" t="n">
-        <v>1878.839948962384</v>
+        <v>2237.794239814737</v>
       </c>
       <c r="T15" t="n">
-        <v>1878.839948962384</v>
+        <v>2038.45989426245</v>
       </c>
       <c r="U15" t="n">
-        <v>1878.839948962384</v>
+        <v>1810.282830662968</v>
       </c>
       <c r="V15" t="n">
-        <v>1643.687840730642</v>
+        <v>1575.130722431225</v>
       </c>
       <c r="W15" t="n">
-        <v>1389.45048400244</v>
+        <v>1320.893365703024</v>
       </c>
       <c r="X15" t="n">
-        <v>1181.598983796907</v>
+        <v>1113.041865497491</v>
       </c>
       <c r="Y15" t="n">
-        <v>973.8386850319534</v>
+        <v>905.2815667325369</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>237.9666078472531</v>
+        <v>643.8838073004235</v>
       </c>
       <c r="C16" t="n">
-        <v>237.9666078472531</v>
+        <v>643.8838073004235</v>
       </c>
       <c r="D16" t="n">
-        <v>189.0778242139114</v>
+        <v>493.7671678880878</v>
       </c>
       <c r="E16" t="n">
-        <v>189.0778242139114</v>
+        <v>493.7671678880878</v>
       </c>
       <c r="F16" t="n">
-        <v>42.18787671600102</v>
+        <v>346.8772203901774</v>
       </c>
       <c r="G16" t="n">
-        <v>42.18787671600102</v>
+        <v>346.8772203901774</v>
       </c>
       <c r="H16" t="n">
-        <v>42.18787671600102</v>
+        <v>188.2859567012335</v>
       </c>
       <c r="I16" t="n">
-        <v>42.18787671600102</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="J16" t="n">
-        <v>42.18787671600102</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="K16" t="n">
-        <v>72.25456008701798</v>
+        <v>94.6129539924503</v>
       </c>
       <c r="L16" t="n">
-        <v>166.255997808103</v>
+        <v>208.3725712297701</v>
       </c>
       <c r="M16" t="n">
-        <v>275.7564570053805</v>
+        <v>338.705260425729</v>
       </c>
       <c r="N16" t="n">
-        <v>388.0878564503602</v>
+        <v>471.3735460023451</v>
       </c>
       <c r="O16" t="n">
-        <v>475.8277896871617</v>
+        <v>577.897885202117</v>
       </c>
       <c r="P16" t="n">
-        <v>527.3837778842137</v>
+        <v>645.5271778068973</v>
       </c>
       <c r="Q16" t="n">
-        <v>527.3837778842137</v>
+        <v>645.5271778068973</v>
       </c>
       <c r="R16" t="n">
-        <v>527.3837778842137</v>
+        <v>645.5271778068973</v>
       </c>
       <c r="S16" t="n">
-        <v>527.3837778842137</v>
+        <v>645.5271778068973</v>
       </c>
       <c r="T16" t="n">
-        <v>527.3837778842137</v>
+        <v>645.5271778068973</v>
       </c>
       <c r="U16" t="n">
-        <v>527.3837778842137</v>
+        <v>645.5271778068973</v>
       </c>
       <c r="V16" t="n">
-        <v>527.3837778842137</v>
+        <v>645.5271778068973</v>
       </c>
       <c r="W16" t="n">
-        <v>237.9666078472531</v>
+        <v>645.5271778068973</v>
       </c>
       <c r="X16" t="n">
-        <v>237.9666078472531</v>
+        <v>645.5271778068973</v>
       </c>
       <c r="Y16" t="n">
-        <v>237.9666078472531</v>
+        <v>645.5271778068973</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>573.7214828515778</v>
+        <v>1599.843896715823</v>
       </c>
       <c r="C17" t="n">
-        <v>573.7214828515778</v>
+        <v>1230.881379775412</v>
       </c>
       <c r="D17" t="n">
-        <v>215.4557842448272</v>
+        <v>872.6156811686612</v>
       </c>
       <c r="E17" t="n">
-        <v>215.4557842448272</v>
+        <v>486.827428570417</v>
       </c>
       <c r="F17" t="n">
-        <v>215.4557842448272</v>
+        <v>75.84152378080944</v>
       </c>
       <c r="G17" t="n">
-        <v>215.4557842448272</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="H17" t="n">
-        <v>215.4557842448272</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="I17" t="n">
-        <v>42.18787671600102</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="J17" t="n">
-        <v>115.2290882856227</v>
+        <v>147.2929132168158</v>
       </c>
       <c r="K17" t="n">
-        <v>345.4437346953284</v>
+        <v>415.194388336768</v>
       </c>
       <c r="L17" t="n">
-        <v>683.3219880803409</v>
+        <v>799.8264852341945</v>
       </c>
       <c r="M17" t="n">
-        <v>1075.883192613821</v>
+        <v>1244.410349176442</v>
       </c>
       <c r="N17" t="n">
-        <v>1460.164450300943</v>
+        <v>1681.556047289583</v>
       </c>
       <c r="O17" t="n">
-        <v>1777.842707170707</v>
+        <v>2049.152696194594</v>
       </c>
       <c r="P17" t="n">
-        <v>2011.299366755286</v>
+        <v>2325.213548478439</v>
       </c>
       <c r="Q17" t="n">
-        <v>2109.393835800051</v>
+        <v>2455.301991945213</v>
       </c>
       <c r="R17" t="n">
-        <v>2022.100492129411</v>
+        <v>2386.997176142746</v>
       </c>
       <c r="S17" t="n">
-        <v>1924.112416467066</v>
+        <v>2206.003582293108</v>
       </c>
       <c r="T17" t="n">
-        <v>1703.229310161625</v>
+        <v>1986.443736779945</v>
       </c>
       <c r="U17" t="n">
-        <v>1703.229310161625</v>
+        <v>1986.443736779945</v>
       </c>
       <c r="V17" t="n">
-        <v>1703.229310161625</v>
+        <v>1986.443736779945</v>
       </c>
       <c r="W17" t="n">
-        <v>1350.460654891511</v>
+        <v>1986.443736779945</v>
       </c>
       <c r="X17" t="n">
-        <v>1350.460654891511</v>
+        <v>1986.443736779945</v>
       </c>
       <c r="Y17" t="n">
-        <v>960.3213229156995</v>
+        <v>1986.443736779945</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>927.1507108840808</v>
+        <v>794.3005707992622</v>
       </c>
       <c r="C18" t="n">
-        <v>752.6976816029538</v>
+        <v>619.8475415181352</v>
       </c>
       <c r="D18" t="n">
-        <v>603.7632719417026</v>
+        <v>470.913131856884</v>
       </c>
       <c r="E18" t="n">
-        <v>506.5089473586346</v>
+        <v>311.6756768514285</v>
       </c>
       <c r="F18" t="n">
-        <v>359.9743893855196</v>
+        <v>187.1292343615337</v>
       </c>
       <c r="G18" t="n">
-        <v>221.7894571263213</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="H18" t="n">
-        <v>113.6925001932248</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="I18" t="n">
-        <v>42.18787671600102</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="J18" t="n">
-        <v>91.99734226147163</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="K18" t="n">
-        <v>303.7504955284376</v>
+        <v>286.456560439811</v>
       </c>
       <c r="L18" t="n">
-        <v>649.8831383448789</v>
+        <v>667.0080225480667</v>
       </c>
       <c r="M18" t="n">
-        <v>1105.782828129934</v>
+        <v>1163.072851015844</v>
       </c>
       <c r="N18" t="n">
-        <v>1310.841828599075</v>
+        <v>1687.974052793654</v>
       </c>
       <c r="O18" t="n">
-        <v>1686.892462576445</v>
+        <v>2101.74042639577</v>
       </c>
       <c r="P18" t="n">
-        <v>1971.703181875404</v>
+        <v>2416.821351821929</v>
       </c>
       <c r="Q18" t="n">
-        <v>2109.393835800051</v>
+        <v>2455.301991945213</v>
       </c>
       <c r="R18" t="n">
-        <v>2109.393835800051</v>
+        <v>2455.301991945213</v>
       </c>
       <c r="S18" t="n">
-        <v>1946.116217237204</v>
+        <v>2295.02858090153</v>
       </c>
       <c r="T18" t="n">
-        <v>1746.129955106378</v>
+        <v>2095.694235349244</v>
       </c>
       <c r="U18" t="n">
-        <v>1746.129955106378</v>
+        <v>1867.517171749761</v>
       </c>
       <c r="V18" t="n">
-        <v>1510.977846874636</v>
+        <v>1632.365063518019</v>
       </c>
       <c r="W18" t="n">
-        <v>1510.977846874636</v>
+        <v>1378.127706789817</v>
       </c>
       <c r="X18" t="n">
-        <v>1303.126346669103</v>
+        <v>1170.276206584284</v>
       </c>
       <c r="Y18" t="n">
-        <v>1095.366047904149</v>
+        <v>962.5159078193303</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>42.18787671600102</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="C19" t="n">
-        <v>42.18787671600102</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="D19" t="n">
-        <v>42.18787671600102</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="E19" t="n">
-        <v>42.18787671600102</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="F19" t="n">
-        <v>42.18787671600102</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="G19" t="n">
-        <v>42.18787671600102</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="H19" t="n">
-        <v>42.18787671600102</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="I19" t="n">
-        <v>42.18787671600102</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="J19" t="n">
-        <v>42.18787671600102</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="K19" t="n">
-        <v>72.25456008701799</v>
+        <v>94.61295399245033</v>
       </c>
       <c r="L19" t="n">
-        <v>166.255997808103</v>
+        <v>208.3725712297702</v>
       </c>
       <c r="M19" t="n">
-        <v>275.7564570053805</v>
+        <v>338.7052604257291</v>
       </c>
       <c r="N19" t="n">
-        <v>388.0878564503602</v>
+        <v>471.3735460023452</v>
       </c>
       <c r="O19" t="n">
-        <v>475.8277896871617</v>
+        <v>577.8978852021171</v>
       </c>
       <c r="P19" t="n">
-        <v>527.3837778842137</v>
+        <v>645.5271778068974</v>
       </c>
       <c r="Q19" t="n">
-        <v>527.3837778842137</v>
+        <v>645.5271778068974</v>
       </c>
       <c r="R19" t="n">
-        <v>527.3837778842137</v>
+        <v>566.5127607738823</v>
       </c>
       <c r="S19" t="n">
-        <v>527.3837778842137</v>
+        <v>566.5127607738823</v>
       </c>
       <c r="T19" t="n">
-        <v>527.3837778842137</v>
+        <v>566.5127607738823</v>
       </c>
       <c r="U19" t="n">
-        <v>331.6050467529616</v>
+        <v>566.5127607738823</v>
       </c>
       <c r="V19" t="n">
-        <v>331.6050467529616</v>
+        <v>566.5127607738823</v>
       </c>
       <c r="W19" t="n">
-        <v>42.18787671600102</v>
+        <v>277.0955907369216</v>
       </c>
       <c r="X19" t="n">
-        <v>42.18787671600102</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="Y19" t="n">
-        <v>42.18787671600102</v>
+        <v>49.10603983890427</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>633.9332278183715</v>
+        <v>467.2811965381418</v>
       </c>
       <c r="C20" t="n">
-        <v>633.9332278183715</v>
+        <v>467.2811965381418</v>
       </c>
       <c r="D20" t="n">
-        <v>633.9332278183715</v>
+        <v>467.2811965381418</v>
       </c>
       <c r="E20" t="n">
-        <v>633.9332278183715</v>
+        <v>467.2811965381418</v>
       </c>
       <c r="F20" t="n">
-        <v>633.9332278183715</v>
+        <v>467.2811965381418</v>
       </c>
       <c r="G20" t="n">
-        <v>215.4557842448272</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="H20" t="n">
-        <v>215.4557842448272</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="I20" t="n">
-        <v>42.18787671600102</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="J20" t="n">
-        <v>115.2290882856227</v>
+        <v>147.292913216816</v>
       </c>
       <c r="K20" t="n">
-        <v>345.4437346953284</v>
+        <v>415.1943883367682</v>
       </c>
       <c r="L20" t="n">
-        <v>683.3219880803408</v>
+        <v>799.8264852341945</v>
       </c>
       <c r="M20" t="n">
-        <v>1075.88319261382</v>
+        <v>1244.410349176442</v>
       </c>
       <c r="N20" t="n">
-        <v>1460.164450300943</v>
+        <v>1681.556047289583</v>
       </c>
       <c r="O20" t="n">
-        <v>1777.842707170707</v>
+        <v>2049.152696194594</v>
       </c>
       <c r="P20" t="n">
-        <v>2011.299366755286</v>
+        <v>2325.213548478439</v>
       </c>
       <c r="Q20" t="n">
-        <v>2109.393835800051</v>
+        <v>2455.301991945213</v>
       </c>
       <c r="R20" t="n">
-        <v>2022.100492129411</v>
+        <v>2386.997176142746</v>
       </c>
       <c r="S20" t="n">
-        <v>2022.100492129411</v>
+        <v>2206.003582293108</v>
       </c>
       <c r="T20" t="n">
-        <v>1801.217385823971</v>
+        <v>1986.443736779945</v>
       </c>
       <c r="U20" t="n">
-        <v>1547.414509624324</v>
+        <v>1732.665043530243</v>
       </c>
       <c r="V20" t="n">
-        <v>1216.351622280753</v>
+        <v>1583.654942045147</v>
       </c>
       <c r="W20" t="n">
-        <v>863.5829670106393</v>
+        <v>1230.886286775033</v>
       </c>
       <c r="X20" t="n">
-        <v>863.5829670106393</v>
+        <v>857.4205285139535</v>
       </c>
       <c r="Y20" t="n">
-        <v>633.9332278183715</v>
+        <v>467.2811965381418</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>583.6144971087181</v>
+        <v>882.2247078646789</v>
       </c>
       <c r="C21" t="n">
-        <v>409.1614678275911</v>
+        <v>707.7716785835519</v>
       </c>
       <c r="D21" t="n">
-        <v>260.2270581663398</v>
+        <v>558.8372689223006</v>
       </c>
       <c r="E21" t="n">
-        <v>260.2270581663398</v>
+        <v>399.5998139168451</v>
       </c>
       <c r="F21" t="n">
-        <v>113.6925001932248</v>
+        <v>253.0652559437301</v>
       </c>
       <c r="G21" t="n">
-        <v>113.6925001932248</v>
+        <v>115.0420614211007</v>
       </c>
       <c r="H21" t="n">
-        <v>113.6925001932248</v>
+        <v>115.0420614211007</v>
       </c>
       <c r="I21" t="n">
-        <v>42.18787671600102</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="J21" t="n">
-        <v>91.99734226147163</v>
+        <v>87.58667996218804</v>
       </c>
       <c r="K21" t="n">
-        <v>303.7504955284376</v>
+        <v>324.9372005630947</v>
       </c>
       <c r="L21" t="n">
-        <v>649.8831383448789</v>
+        <v>705.4886626713505</v>
       </c>
       <c r="M21" t="n">
-        <v>1105.782828129934</v>
+        <v>1201.553491139127</v>
       </c>
       <c r="N21" t="n">
-        <v>1310.841828599075</v>
+        <v>1726.454692916938</v>
       </c>
       <c r="O21" t="n">
-        <v>1686.892462576445</v>
+        <v>2140.221066519054</v>
       </c>
       <c r="P21" t="n">
-        <v>1971.703181875404</v>
+        <v>2455.301991945213</v>
       </c>
       <c r="Q21" t="n">
-        <v>2109.393835800051</v>
+        <v>2455.301991945213</v>
       </c>
       <c r="R21" t="n">
-        <v>2042.117567525231</v>
+        <v>2455.301991945213</v>
       </c>
       <c r="S21" t="n">
-        <v>1878.839948962384</v>
+        <v>2382.952717966947</v>
       </c>
       <c r="T21" t="n">
-        <v>1678.853686831559</v>
+        <v>2183.61837241466</v>
       </c>
       <c r="U21" t="n">
-        <v>1450.665982591513</v>
+        <v>1955.441308815178</v>
       </c>
       <c r="V21" t="n">
-        <v>1421.678989827474</v>
+        <v>1720.289200583435</v>
       </c>
       <c r="W21" t="n">
-        <v>1167.441633099273</v>
+        <v>1466.051843855234</v>
       </c>
       <c r="X21" t="n">
-        <v>959.59013289374</v>
+        <v>1258.200343649701</v>
       </c>
       <c r="Y21" t="n">
-        <v>751.8298341287862</v>
+        <v>1050.440044884747</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>201.9847075371443</v>
+        <v>66.93122631333</v>
       </c>
       <c r="C22" t="n">
-        <v>201.9847075371443</v>
+        <v>66.93122631333</v>
       </c>
       <c r="D22" t="n">
-        <v>201.9847075371443</v>
+        <v>66.93122631333</v>
       </c>
       <c r="E22" t="n">
-        <v>201.9847075371443</v>
+        <v>66.93122631333</v>
       </c>
       <c r="F22" t="n">
-        <v>201.9847075371443</v>
+        <v>66.93122631333</v>
       </c>
       <c r="G22" t="n">
-        <v>201.9847075371443</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="H22" t="n">
-        <v>42.18787671600102</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="I22" t="n">
-        <v>42.18787671600102</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="J22" t="n">
-        <v>42.18787671600102</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="K22" t="n">
-        <v>72.25456008701799</v>
+        <v>94.61295399245033</v>
       </c>
       <c r="L22" t="n">
-        <v>166.255997808103</v>
+        <v>208.3725712297702</v>
       </c>
       <c r="M22" t="n">
-        <v>275.7564570053805</v>
+        <v>338.7052604257291</v>
       </c>
       <c r="N22" t="n">
-        <v>388.0878564503602</v>
+        <v>471.3735460023452</v>
       </c>
       <c r="O22" t="n">
-        <v>475.8277896871617</v>
+        <v>577.8978852021171</v>
       </c>
       <c r="P22" t="n">
-        <v>527.3837778842137</v>
+        <v>645.5271778068974</v>
       </c>
       <c r="Q22" t="n">
-        <v>527.3837778842137</v>
+        <v>645.5271778068974</v>
       </c>
       <c r="R22" t="n">
-        <v>527.3837778842137</v>
+        <v>645.5271778068974</v>
       </c>
       <c r="S22" t="n">
-        <v>309.0801251806055</v>
+        <v>645.5271778068974</v>
       </c>
       <c r="T22" t="n">
-        <v>201.9847075371443</v>
+        <v>645.5271778068974</v>
       </c>
       <c r="U22" t="n">
-        <v>201.9847075371443</v>
+        <v>356.3483963502906</v>
       </c>
       <c r="V22" t="n">
-        <v>201.9847075371443</v>
+        <v>356.3483963502906</v>
       </c>
       <c r="W22" t="n">
-        <v>201.9847075371443</v>
+        <v>66.93122631333</v>
       </c>
       <c r="X22" t="n">
-        <v>201.9847075371443</v>
+        <v>66.93122631333</v>
       </c>
       <c r="Y22" t="n">
-        <v>201.9847075371443</v>
+        <v>66.93122631333</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1078.595463490097</v>
+        <v>1315.683675137274</v>
       </c>
       <c r="C23" t="n">
-        <v>1078.595463490097</v>
+        <v>946.7211581968625</v>
       </c>
       <c r="D23" t="n">
-        <v>720.329764883347</v>
+        <v>946.7211581968625</v>
       </c>
       <c r="E23" t="n">
-        <v>334.5415122851028</v>
+        <v>560.9329055986182</v>
       </c>
       <c r="F23" t="n">
-        <v>334.5415122851028</v>
+        <v>149.9470008090106</v>
       </c>
       <c r="G23" t="n">
-        <v>334.5415122851028</v>
+        <v>149.9470008090106</v>
       </c>
       <c r="H23" t="n">
-        <v>207.4089578252748</v>
+        <v>149.9470008090106</v>
       </c>
       <c r="I23" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
@@ -6022,19 +6022,19 @@
         <v>2423.485734520778</v>
       </c>
       <c r="U23" t="n">
-        <v>2169.72394915887</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V23" t="n">
-        <v>1838.661061815299</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W23" t="n">
-        <v>1838.661061815299</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="X23" t="n">
-        <v>1465.195303554219</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="Y23" t="n">
-        <v>1465.195303554219</v>
+        <v>1702.283515201396</v>
       </c>
     </row>
     <row r="24">
@@ -6056,10 +6056,10 @@
         <v>505.8730812692492</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H24" t="n">
         <v>115.9856282673424</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>361.80799380017</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C25" t="n">
-        <v>361.80799380017</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D25" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E25" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F25" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G25" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H25" t="n">
         <v>53.94298182036445</v>
@@ -6171,28 +6171,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064342</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064342</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="T25" t="n">
-        <v>651.2251638371306</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="U25" t="n">
-        <v>651.2251638371306</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="V25" t="n">
-        <v>651.2251638371306</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="W25" t="n">
-        <v>361.80799380017</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="X25" t="n">
-        <v>361.80799380017</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="Y25" t="n">
-        <v>361.80799380017</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>927.7879015331887</v>
+        <v>923.1150787952338</v>
       </c>
       <c r="C26" t="n">
-        <v>830.1724885289282</v>
+        <v>923.1150787952338</v>
       </c>
       <c r="D26" t="n">
-        <v>471.9067899221776</v>
+        <v>564.8493801884833</v>
       </c>
       <c r="E26" t="n">
-        <v>471.9067899221776</v>
+        <v>564.8493801884833</v>
       </c>
       <c r="F26" t="n">
-        <v>471.9067899221776</v>
+        <v>564.8493801884833</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H26" t="n">
         <v>53.94298182036445</v>
@@ -6226,19 +6226,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
@@ -6253,25 +6253,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T26" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U26" t="n">
-        <v>2388.358616186807</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V26" t="n">
-        <v>2057.295728843236</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W26" t="n">
-        <v>1704.527073573122</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X26" t="n">
-        <v>1704.527073573122</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y26" t="n">
-        <v>1314.38774159731</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H27" t="n">
         <v>115.9856282673424</v>
@@ -6317,10 +6317,10 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N27" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O27" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P27" t="n">
         <v>2525.076107152626</v>
@@ -6329,19 +6329,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W27" t="n">
         <v>1572.325111207638</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>211.4036268380754</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C28" t="n">
-        <v>211.4036268380754</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D28" t="n">
-        <v>211.4036268380754</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E28" t="n">
-        <v>211.4036268380754</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F28" t="n">
-        <v>64.513679340165</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G28" t="n">
         <v>53.94298182036445</v>
@@ -6414,22 +6414,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U28" t="n">
-        <v>500.820796875036</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V28" t="n">
-        <v>500.820796875036</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W28" t="n">
-        <v>211.4036268380754</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X28" t="n">
-        <v>211.4036268380754</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y28" t="n">
-        <v>211.4036268380754</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1577.945354755378</v>
+        <v>1752.280010459091</v>
       </c>
       <c r="C29" t="n">
-        <v>1208.982837814967</v>
+        <v>1383.317493518679</v>
       </c>
       <c r="D29" t="n">
-        <v>850.7171392082162</v>
+        <v>1025.051794911929</v>
       </c>
       <c r="E29" t="n">
-        <v>464.928886609972</v>
+        <v>1025.051794911929</v>
       </c>
       <c r="F29" t="n">
-        <v>53.94298182036445</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I29" t="n">
         <v>53.94298182036445</v>
@@ -6466,10 +6466,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6493,22 +6493,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T29" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U29" t="n">
-        <v>2443.387305656314</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V29" t="n">
-        <v>2443.387305656314</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W29" t="n">
-        <v>2090.6186503862</v>
+        <v>2125.745768720171</v>
       </c>
       <c r="X29" t="n">
-        <v>2090.6186503862</v>
+        <v>1752.280010459091</v>
       </c>
       <c r="Y29" t="n">
-        <v>1964.5451948195</v>
+        <v>1752.280010459091</v>
       </c>
     </row>
     <row r="30">
@@ -6524,19 +6524,19 @@
         <v>814.044945935956</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I30" t="n">
         <v>53.94298182036445</v>
@@ -6554,13 +6554,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O30" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018222</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>257.0633493392339</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C31" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D31" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E31" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F31" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G31" t="n">
         <v>53.94298182036445</v>
@@ -6654,19 +6654,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U31" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V31" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W31" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X31" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y31" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="32">
@@ -6676,31 +6676,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>882.8926947117852</v>
+        <v>1338.355738489329</v>
       </c>
       <c r="C32" t="n">
-        <v>882.8926947117852</v>
+        <v>1338.355738489329</v>
       </c>
       <c r="D32" t="n">
-        <v>882.8926947117852</v>
+        <v>1338.355738489329</v>
       </c>
       <c r="E32" t="n">
-        <v>882.8926947117852</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="F32" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I32" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
         <v>463.9616490733126</v>
@@ -6712,7 +6712,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
@@ -6724,28 +6724,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2520.971603332393</v>
+        <v>2515.280836483826</v>
       </c>
       <c r="T32" t="n">
-        <v>2520.971603332393</v>
+        <v>2296.646169455888</v>
       </c>
       <c r="U32" t="n">
-        <v>2520.971603332393</v>
+        <v>2042.88438409398</v>
       </c>
       <c r="V32" t="n">
-        <v>2385.866280282913</v>
+        <v>1711.821496750409</v>
       </c>
       <c r="W32" t="n">
-        <v>2033.097625012799</v>
+        <v>1711.821496750409</v>
       </c>
       <c r="X32" t="n">
-        <v>1659.631866751719</v>
+        <v>1338.355738489329</v>
       </c>
       <c r="Y32" t="n">
-        <v>1269.492534775907</v>
+        <v>1338.355738489329</v>
       </c>
     </row>
     <row r="33">
@@ -6755,49 +6755,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I33" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K33" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L33" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M33" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N33" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O33" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P33" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018222</v>
@@ -6806,16 +6806,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207638</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>520.9725150767609</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="C34" t="n">
-        <v>520.9725150767609</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="D34" t="n">
-        <v>370.8558756644252</v>
+        <v>175.5713008203286</v>
       </c>
       <c r="E34" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F34" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G34" t="n">
         <v>53.94298182036445</v>
@@ -6900,10 +6900,10 @@
         <v>728.1289842064342</v>
       </c>
       <c r="X34" t="n">
-        <v>520.9725150767609</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y34" t="n">
-        <v>520.9725150767609</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>951.4629090302694</v>
+        <v>1273.280804219765</v>
       </c>
       <c r="C35" t="n">
-        <v>951.4629090302694</v>
+        <v>1273.280804219765</v>
       </c>
       <c r="D35" t="n">
-        <v>593.197210423519</v>
+        <v>1273.280804219765</v>
       </c>
       <c r="E35" t="n">
-        <v>207.4089578252748</v>
+        <v>887.4925516215203</v>
       </c>
       <c r="F35" t="n">
-        <v>207.4089578252748</v>
+        <v>476.5066468319127</v>
       </c>
       <c r="G35" t="n">
-        <v>207.4089578252748</v>
+        <v>58.54283873009962</v>
       </c>
       <c r="H35" t="n">
-        <v>207.4089578252748</v>
+        <v>58.54283873009962</v>
       </c>
       <c r="I35" t="n">
         <v>53.94298182036444</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -6961,28 +6961,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S35" t="n">
-        <v>2574.064291721128</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T35" t="n">
-        <v>2355.429624693191</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U35" t="n">
-        <v>2101.667839331283</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V35" t="n">
-        <v>2101.667839331283</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W35" t="n">
-        <v>2101.667839331283</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="X35" t="n">
-        <v>1728.202081070203</v>
+        <v>2050.019976259698</v>
       </c>
       <c r="Y35" t="n">
-        <v>1338.062749094391</v>
+        <v>1659.880644283886</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170821</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359551</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747037</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692481</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961333</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H36" t="n">
         <v>115.9856282673424</v>
@@ -7019,49 +7019,49 @@
         <v>53.94298182036444</v>
       </c>
       <c r="K36" t="n">
-        <v>266.2060027641985</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L36" t="n">
-        <v>670.8219208598704</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M36" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N36" t="n">
-        <v>1748.695370517452</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.831293537796</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.076107152625</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073962</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196741</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U36" t="n">
-        <v>2061.714576167581</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.562467935838</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W36" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X36" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y36" t="n">
-        <v>1156.71331223715</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="37">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>546.4805193761945</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C37" t="n">
-        <v>377.5443364482876</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D37" t="n">
-        <v>377.5443364482876</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E37" t="n">
-        <v>377.5443364482876</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F37" t="n">
-        <v>377.5443364482876</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G37" t="n">
-        <v>208.54453618662</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H37" t="n">
         <v>53.94298182036444</v>
@@ -7128,19 +7128,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U37" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V37" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W37" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X37" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y37" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1331.061315312042</v>
+        <v>1108.365917331524</v>
       </c>
       <c r="C38" t="n">
-        <v>962.0987983716307</v>
+        <v>739.4034003911122</v>
       </c>
       <c r="D38" t="n">
-        <v>603.8330997648802</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="E38" t="n">
-        <v>218.044847166636</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F38" t="n">
-        <v>218.044847166636</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H38" t="n">
         <v>53.94298182036445</v>
@@ -7180,7 +7180,7 @@
         <v>463.9616490733129</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7201,25 +7201,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T38" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U38" t="n">
-        <v>2388.358616186807</v>
+        <v>2165.663218206289</v>
       </c>
       <c r="V38" t="n">
-        <v>2057.295728843236</v>
+        <v>1834.600330862718</v>
       </c>
       <c r="W38" t="n">
-        <v>1704.527073573122</v>
+        <v>1481.831675592604</v>
       </c>
       <c r="X38" t="n">
-        <v>1331.061315312042</v>
+        <v>1108.365917331524</v>
       </c>
       <c r="Y38" t="n">
-        <v>1331.061315312042</v>
+        <v>1108.365917331524</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H39" t="n">
         <v>115.9856282673424</v>
@@ -7253,43 +7253,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K39" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L39" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M39" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N39" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O39" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W39" t="n">
         <v>1572.325111207638</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>53.94298182036445</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="C40" t="n">
-        <v>53.94298182036445</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D40" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E40" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G40" t="n">
         <v>53.94298182036445</v>
@@ -7359,25 +7359,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064342</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064342</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="U40" t="n">
-        <v>438.9553738610022</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="V40" t="n">
-        <v>343.360151857325</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="W40" t="n">
-        <v>53.94298182036445</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="X40" t="n">
-        <v>53.94298182036445</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.94298182036445</v>
+        <v>667.8624625746712</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1261.831893336434</v>
+        <v>1443.489535627675</v>
       </c>
       <c r="C41" t="n">
-        <v>892.8693763960225</v>
+        <v>1443.489535627675</v>
       </c>
       <c r="D41" t="n">
-        <v>534.603677789272</v>
+        <v>1443.489535627675</v>
       </c>
       <c r="E41" t="n">
-        <v>534.603677789272</v>
+        <v>1057.701283029431</v>
       </c>
       <c r="F41" t="n">
-        <v>534.603677789272</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="G41" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H41" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J41" t="n">
         <v>169.7108380533141</v>
@@ -7417,7 +7417,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7435,28 +7435,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S41" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T41" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U41" t="n">
-        <v>1993.54646147304</v>
+        <v>2169.723949158869</v>
       </c>
       <c r="V41" t="n">
-        <v>1662.48357412947</v>
+        <v>2169.723949158869</v>
       </c>
       <c r="W41" t="n">
-        <v>1309.714918859356</v>
+        <v>1816.955293888755</v>
       </c>
       <c r="X41" t="n">
-        <v>1261.831893336434</v>
+        <v>1443.489535627675</v>
       </c>
       <c r="Y41" t="n">
-        <v>1261.831893336434</v>
+        <v>1443.489535627675</v>
       </c>
     </row>
     <row r="42">
@@ -7466,34 +7466,34 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C42" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J42" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K42" t="n">
-        <v>309.190302261463</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L42" t="n">
         <v>713.8062203571349</v>
@@ -7502,13 +7502,13 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N42" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O42" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018222</v>
@@ -7529,10 +7529,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W42" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X42" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y42" t="n">
         <v>1156.713312237151</v>
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
@@ -7608,13 +7608,13 @@
         <v>343.360151857325</v>
       </c>
       <c r="W43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="44">
@@ -7624,40 +7624,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>471.9067899221776</v>
+        <v>1937.08349269302</v>
       </c>
       <c r="C44" t="n">
-        <v>471.9067899221776</v>
+        <v>1568.120975752609</v>
       </c>
       <c r="D44" t="n">
-        <v>471.9067899221776</v>
+        <v>1209.855277145858</v>
       </c>
       <c r="E44" t="n">
-        <v>471.9067899221776</v>
+        <v>824.067024547614</v>
       </c>
       <c r="F44" t="n">
-        <v>471.9067899221776</v>
+        <v>413.0811197580064</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J44" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533135</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733125</v>
+        <v>463.961649073312</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224068</v>
       </c>
       <c r="M44" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N44" t="n">
         <v>1836.345445977174</v>
@@ -7672,28 +7672,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S44" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T44" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U44" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V44" t="n">
-        <v>1662.48357412947</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W44" t="n">
-        <v>1622.111720223191</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X44" t="n">
-        <v>1248.645961962111</v>
+        <v>2323.683332757142</v>
       </c>
       <c r="Y44" t="n">
-        <v>858.5066299862995</v>
+        <v>2323.683332757142</v>
       </c>
     </row>
     <row r="45">
@@ -7703,67 +7703,67 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C45" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E45" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H45" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K45" t="n">
-        <v>266.206002764199</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L45" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M45" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N45" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O45" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W45" t="n">
         <v>1572.325111207638</v>
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.94298182036445</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="C46" t="n">
-        <v>53.94298182036445</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036445</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036445</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036445</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036445</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036445</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K46" t="n">
         <v>110.2451748866326</v>
@@ -8063,16 +8063,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O3" t="n">
-        <v>233.6791982203443</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8218,7 +8218,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8300,13 +8300,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N6" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8540,13 +8540,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8768,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>399.2039605324505</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>387.9064735273547</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>176.1159433919873</v>
+        <v>142.9145225887215</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.99581912509471</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9008,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>50.57316300554227</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9017,16 +9017,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>452.7712538080231</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>250.9265487882695</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>50.55659572925431</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>60.65058134701567</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9254,7 +9254,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>197.9140804848494</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>89.42592918711696</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>99.51991480487808</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9491,7 +9491,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>197.9140804848494</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>50.55659572925428</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9965,13 +9965,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10114,13 +10114,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10202,7 +10202,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.64146763747121</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K36" t="n">
-        <v>221.0467526719075</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10913,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11150,13 +11150,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028821</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>275.0442842992665</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720731</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11375,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K45" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22549,19 +22549,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>194.5906600982693</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
         <v>98.46051323810809</v>
@@ -22591,7 +22591,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -22612,10 +22612,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>183.9432522271564</v>
       </c>
     </row>
     <row r="3">
@@ -22679,7 +22679,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -22691,10 +22691,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>170.365719729939</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="4">
@@ -22755,7 +22755,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -22767,7 +22767,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22789,25 +22789,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>352.8864698128427</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>142.0904719091984</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22837,7 +22837,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -22862,7 +22862,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -22874,7 +22874,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>81.86392353064775</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -22883,7 +22883,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>79.36038347675968</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -22910,22 +22910,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -22962,7 +22962,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J7" t="n">
         <v>93.35918011667277</v>
@@ -23004,7 +23004,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23023,7 +23023,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>354.079835614828</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23032,7 +23032,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>285.9487086963819</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>415.302737515135</v>
@@ -23041,10 +23041,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23068,7 +23068,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -23080,13 +23080,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23099,13 +23099,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>80.01417085616212</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -23114,16 +23114,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,7 +23147,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -23156,10 +23156,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>117.2031982502664</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -23238,13 +23238,13 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -23263,22 +23263,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>415.1619485273195</v>
       </c>
       <c r="H11" t="n">
-        <v>329.1304393464753</v>
+        <v>61.87643319194535</v>
       </c>
       <c r="I11" t="n">
-        <v>171.5352284535379</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>86.42041023393331</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -23314,16 +23314,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2648474376504</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V11" t="n">
-        <v>210.9884958748525</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>143.4960839863692</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23336,28 +23336,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H12" t="n">
-        <v>107.0159873637655</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I12" t="n">
-        <v>70.78957724245151</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S12" t="n">
-        <v>74.54399969446695</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>50.1794791572195</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23402,7 +23402,7 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23424,25 +23424,25 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>116.7238167216225</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>83.14655165921491</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H13" t="n">
-        <v>158.1988625129318</v>
+        <v>161.6656840978772</v>
       </c>
       <c r="I13" t="n">
-        <v>141.8250664795777</v>
+        <v>153.551289182031</v>
       </c>
       <c r="J13" t="n">
-        <v>61.32628970022417</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23460,19 +23460,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>48.22261241385098</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R13" t="n">
-        <v>156.9211815276446</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>222.9160118599466</v>
       </c>
       <c r="T13" t="n">
-        <v>226.0096940321479</v>
+        <v>227.6757534850358</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2943157982424</v>
+        <v>286.3155846423218</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23497,13 +23497,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>41.01613714896405</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>329.1304393464753</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>18.92693009185251</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>86.42041023393332</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -23551,13 +23551,13 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2648474376504</v>
+        <v>251.2409063172053</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23582,19 +23582,19 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>78.43023200431352</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>3.869823755420157</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>107.0159873637655</v>
+        <v>105.4695617893551</v>
       </c>
       <c r="I15" t="n">
-        <v>70.78957724245151</v>
+        <v>65.27666136637444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23627,10 +23627,10 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>197.9863995095175</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9058271976456</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>178.2050433805283</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>100.2155772212041</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,16 +23667,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.537897457236</v>
+        <v>167.4036579268715</v>
       </c>
       <c r="H16" t="n">
-        <v>158.1988625129318</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>141.8250664795777</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>61.32628970022417</v>
+        <v>51.83555490345139</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,25 +23697,25 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>48.22261241385099</v>
+        <v>36.98188228487142</v>
       </c>
       <c r="R16" t="n">
-        <v>156.9211815276446</v>
+        <v>150.8852840987083</v>
       </c>
       <c r="S16" t="n">
-        <v>216.1206161765721</v>
+        <v>213.7811872701283</v>
       </c>
       <c r="T16" t="n">
-        <v>226.0096940321479</v>
+        <v>225.4361251296812</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2943157982424</v>
+        <v>286.2869936420407</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23734,25 +23734,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>414.2926691378088</v>
+        <v>387.525276029759</v>
       </c>
       <c r="H17" t="n">
-        <v>329.1304393464753</v>
+        <v>326.065601849496</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>159.9978528790433</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>88.99494153220257</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2648474376504</v>
+        <v>251.2409063172053</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23819,19 +23819,19 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>61.36329911816368</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>21.76823432838805</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>105.4695617893551</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>65.27666136637444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>66.60350559207139</v>
+        <v>56.66199767592525</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23867,13 +23867,13 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9058271976456</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -23904,16 +23904,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.537897457236</v>
+        <v>167.4036579268715</v>
       </c>
       <c r="H19" t="n">
-        <v>158.1988625129318</v>
+        <v>157.0053510520544</v>
       </c>
       <c r="I19" t="n">
-        <v>141.8250664795777</v>
+        <v>137.7881176937059</v>
       </c>
       <c r="J19" t="n">
-        <v>61.32628970022417</v>
+        <v>51.83555490345137</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,19 +23934,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>48.22261241385098</v>
+        <v>36.9818822848714</v>
       </c>
       <c r="R19" t="n">
-        <v>156.9211815276446</v>
+        <v>72.6610112360233</v>
       </c>
       <c r="S19" t="n">
-        <v>216.1206161765721</v>
+        <v>213.7811872701283</v>
       </c>
       <c r="T19" t="n">
-        <v>226.0096940321479</v>
+        <v>225.4361251296812</v>
       </c>
       <c r="U19" t="n">
-        <v>92.47337197830285</v>
+        <v>286.2869936420407</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>329.1304393464753</v>
+        <v>326.065601849496</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>159.9978528790433</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>186.0031364379248</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24028,16 +24028,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>180.2322579998906</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>158.8846968557085</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24056,16 +24056,16 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>136.8030829366063</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>107.0159873637655</v>
+        <v>105.4695617893551</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24095,10 +24095,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>56.66199767592525</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>87.04489569476209</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24107,7 +24107,7 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>204.1034643130275</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -24141,16 +24141,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.537897457236</v>
+        <v>149.75672331719</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>157.0053510520544</v>
       </c>
       <c r="I22" t="n">
-        <v>141.8250664795777</v>
+        <v>137.7881176937059</v>
       </c>
       <c r="J22" t="n">
-        <v>61.32628970022417</v>
+        <v>51.83555490345137</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,25 +24171,25 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>48.22261241385098</v>
+        <v>36.9818822848714</v>
       </c>
       <c r="R22" t="n">
-        <v>156.9211815276446</v>
+        <v>150.8852840987082</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>213.7811872701283</v>
       </c>
       <c r="T22" t="n">
-        <v>119.9852305651214</v>
+        <v>225.4361251296812</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2943157982424</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24208,25 +24208,25 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>198.0615438491275</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>56.88733744610157</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24262,7 +24262,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24271,10 +24271,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24381,7 +24381,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
         <v>134.9656217923382</v>
@@ -24411,13 +24411,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801579</v>
+        <v>44.88450425060881</v>
       </c>
       <c r="S25" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>148.9003232924737</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
         <v>286.2818742419777</v>
@@ -24426,13 +24426,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24445,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>268.6336328967897</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24457,10 +24457,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>231.9096084007145</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>151.9313162448613</v>
@@ -24493,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24612,10 +24612,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>156.8448117144484</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
         <v>156.1708888417951</v>
@@ -24654,13 +24654,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24688,19 +24688,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>335.116579811076</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,10 +24733,10 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24745,10 +24745,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>261.4252176450211</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>133.467459513998</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
         <v>156.1708888417951</v>
@@ -24894,10 +24894,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24925,19 +24925,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>48.84454339473051</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>193.9979886511498</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25083,22 +25083,22 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>26.02192683660465</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J34" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,7 +25119,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R34" t="n">
         <v>146.6651919801579</v>
@@ -25140,10 +25140,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>20.62475095066063</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25159,22 +25159,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>147.3774579042234</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,16 +25201,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>52.561761504849</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25280,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>8.100187187665142e-13</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25326,16 +25326,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
-        <v>3.11535001920214</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J37" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R37" t="n">
         <v>146.6651919801579</v>
@@ -25368,13 +25368,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25399,16 +25399,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>251.3233233279862</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>151.9313162448613</v>
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>170.395589165916</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25554,25 +25554,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J40" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,25 +25593,25 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R40" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
-        <v>212.1455389500189</v>
+        <v>152.4816825345735</v>
       </c>
       <c r="T40" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>157.4983735401877</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25630,25 +25630,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>150.8622703298876</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25687,13 +25687,13 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>322.3269054107769</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25806,10 +25806,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J43" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R43" t="n">
         <v>146.6651919801579</v>
@@ -25867,19 +25867,19 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>58.23741346252945</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
@@ -25912,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>309.2728333501972</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>8.100187187665142e-13</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>51.04847948014722</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26043,10 +26043,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923382</v>
+        <v>6.182121090548151</v>
       </c>
       <c r="J46" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,7 +26067,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R46" t="n">
         <v>146.6651919801579</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>687785.5453898843</v>
+        <v>502636.0448791047</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>687785.5453898842</v>
+        <v>751523.1737085967</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>687785.5453898842</v>
+        <v>751523.1737085968</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>687785.5453898844</v>
+        <v>751523.1737085968</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>796086.333717479</v>
+        <v>796086.3337174788</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>796086.3337174788</v>
+        <v>796086.333717479</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>796086.3337174788</v>
+        <v>796086.333717479</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>796086.3337174791</v>
+        <v>796086.333717479</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>796086.3337174788</v>
+        <v>796086.333717479</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>796086.333717479</v>
+        <v>796086.3337174788</v>
       </c>
     </row>
     <row r="16">
@@ -26316,37 +26316,37 @@
         <v>149544.6052781992</v>
       </c>
       <c r="C2" t="n">
-        <v>149544.6052781991</v>
+        <v>149544.6052781992</v>
       </c>
       <c r="D2" t="n">
         <v>149544.6052781992</v>
       </c>
       <c r="E2" t="n">
-        <v>223045.8084776439</v>
+        <v>159463.6497950858</v>
       </c>
       <c r="F2" t="n">
-        <v>223045.8084776438</v>
+        <v>244933.9278895519</v>
       </c>
       <c r="G2" t="n">
-        <v>223045.808477644</v>
+        <v>244933.927889552</v>
       </c>
       <c r="H2" t="n">
-        <v>223045.808477644</v>
+        <v>244933.927889552</v>
       </c>
       <c r="I2" t="n">
-        <v>260237.3490141817</v>
+        <v>260237.3490141815</v>
       </c>
       <c r="J2" t="n">
         <v>260237.3490141817</v>
       </c>
       <c r="K2" t="n">
-        <v>260237.3490141814</v>
+        <v>260237.3490141816</v>
       </c>
       <c r="L2" t="n">
         <v>260237.3490141816</v>
       </c>
       <c r="M2" t="n">
-        <v>260237.3490141817</v>
+        <v>260237.3490141816</v>
       </c>
       <c r="N2" t="n">
         <v>260237.3490141816</v>
@@ -26355,7 +26355,7 @@
         <v>260237.3490141816</v>
       </c>
       <c r="P2" t="n">
-        <v>260237.3490141816</v>
+        <v>260237.3490141815</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>287351.7100134255</v>
+        <v>38628.88112923565</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>326513.6777659219</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>134288.7015116922</v>
+        <v>55256.55893426017</v>
       </c>
       <c r="J3" t="n">
         <v>63059.94259910623</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>71355.62051871076</v>
+        <v>8757.582995213621</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>82704.25131371449</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26426,22 +26426,22 @@
         <v>42017.42535589615</v>
       </c>
       <c r="E4" t="n">
-        <v>43830.75094230083</v>
+        <v>42169.81622231289</v>
       </c>
       <c r="F4" t="n">
-        <v>43830.75094230083</v>
+        <v>44402.74063393311</v>
       </c>
       <c r="G4" t="n">
-        <v>43830.75094230082</v>
+        <v>44402.74063393311</v>
       </c>
       <c r="H4" t="n">
-        <v>43830.75094230082</v>
+        <v>44402.74063393311</v>
       </c>
       <c r="I4" t="n">
         <v>44802.65617556861</v>
       </c>
       <c r="J4" t="n">
-        <v>44802.65617556861</v>
+        <v>44802.6561755686</v>
       </c>
       <c r="K4" t="n">
         <v>44802.6561755686</v>
@@ -26453,13 +26453,13 @@
         <v>44802.6561755686</v>
       </c>
       <c r="N4" t="n">
+        <v>44802.65617556861</v>
+      </c>
+      <c r="O4" t="n">
         <v>44802.6561755686</v>
       </c>
-      <c r="O4" t="n">
-        <v>44802.65617556861</v>
-      </c>
       <c r="P4" t="n">
-        <v>44802.65617556861</v>
+        <v>44802.6561755686</v>
       </c>
     </row>
     <row r="5">
@@ -26478,16 +26478,16 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>37540.13459730638</v>
+        <v>17553.77951678015</v>
       </c>
       <c r="F5" t="n">
-        <v>37540.13459730638</v>
+        <v>44420.7724568834</v>
       </c>
       <c r="G5" t="n">
-        <v>37540.13459730638</v>
+        <v>44420.7724568834</v>
       </c>
       <c r="H5" t="n">
-        <v>37540.13459730638</v>
+        <v>44420.7724568834</v>
       </c>
       <c r="I5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33741.53099304682</v>
+        <v>-22745.32143501044</v>
       </c>
       <c r="C6" t="n">
-        <v>47027.90053850085</v>
+        <v>58024.11009653733</v>
       </c>
       <c r="D6" t="n">
-        <v>47027.90053850094</v>
+        <v>58024.11009653733</v>
       </c>
       <c r="E6" t="n">
-        <v>-153811.3975176823</v>
+        <v>59944.47766762469</v>
       </c>
       <c r="F6" t="n">
-        <v>133540.3124957431</v>
+        <v>-171095.1233480164</v>
       </c>
       <c r="G6" t="n">
-        <v>133540.3124957432</v>
+        <v>155418.5544179056</v>
       </c>
       <c r="H6" t="n">
-        <v>133540.3124957432</v>
+        <v>155418.5544179056</v>
       </c>
       <c r="I6" t="n">
-        <v>25846.09951769225</v>
+        <v>110339.8144663614</v>
       </c>
       <c r="J6" t="n">
-        <v>97074.8584302782</v>
+        <v>102536.4308015154</v>
       </c>
       <c r="K6" t="n">
-        <v>160134.8010293842</v>
+        <v>165596.3734006216</v>
       </c>
       <c r="L6" t="n">
-        <v>160134.8010293843</v>
+        <v>165596.3734006216</v>
       </c>
       <c r="M6" t="n">
-        <v>88779.1805106737</v>
+        <v>156838.790405408</v>
       </c>
       <c r="N6" t="n">
-        <v>160134.8010293844</v>
+        <v>82892.12208690713</v>
       </c>
       <c r="O6" t="n">
-        <v>160134.8010293843</v>
+        <v>165596.3734006217</v>
       </c>
       <c r="P6" t="n">
-        <v>160134.8010293843</v>
+        <v>165596.3734006216</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>251.2545088598901</v>
+        <v>35.02126071912533</v>
       </c>
       <c r="F3" t="n">
-        <v>251.2545088598901</v>
+        <v>325.6964302438607</v>
       </c>
       <c r="G3" t="n">
-        <v>251.2545088598901</v>
+        <v>325.6964302438608</v>
       </c>
       <c r="H3" t="n">
-        <v>251.2545088598901</v>
+        <v>325.6964302438608</v>
       </c>
       <c r="I3" t="n">
         <v>377.7436642170866</v>
@@ -26798,16 +26798,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>527.3484589500127</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="F4" t="n">
-        <v>527.3484589500127</v>
+        <v>613.8254979863033</v>
       </c>
       <c r="G4" t="n">
-        <v>527.3484589500127</v>
+        <v>613.8254979863033</v>
       </c>
       <c r="H4" t="n">
-        <v>527.3484589500127</v>
+        <v>613.8254979863033</v>
       </c>
       <c r="I4" t="n">
         <v>674.2872727545556</v>
@@ -26828,10 +26828,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
     </row>
   </sheetData>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>251.2545088598901</v>
+        <v>35.02126071912533</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>290.6751695247354</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>126.4891553571966</v>
+        <v>52.04723397322579</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>286.3341700723537</v>
+        <v>35.14222482469643</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>337.6689842839477</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>146.9388138045429</v>
+        <v>60.46177476825233</v>
       </c>
       <c r="J4" t="n">
         <v>241.0142888776591</v>
@@ -27044,10 +27044,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>286.3341700723534</v>
+        <v>35.14222482469631</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>337.6689842839478</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>286.3341700723537</v>
+        <v>35.14222482469643</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>337.6689842839477</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.01006837732619</v>
+        <v>0.1407889878155791</v>
       </c>
       <c r="H11" t="n">
-        <v>10.34436276929185</v>
+        <v>1.4418552214663</v>
       </c>
       <c r="I11" t="n">
-        <v>38.940661116868</v>
+        <v>5.427767452760119</v>
       </c>
       <c r="J11" t="n">
-        <v>85.72829094008884</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
-        <v>128.4844853523065</v>
+        <v>17.90888720884599</v>
       </c>
       <c r="L11" t="n">
-        <v>159.3963654549029</v>
+        <v>22.21755819470702</v>
       </c>
       <c r="M11" t="n">
-        <v>177.3591689601776</v>
+        <v>24.72131435677232</v>
       </c>
       <c r="N11" t="n">
-        <v>180.2290257372556</v>
+        <v>25.12133106840334</v>
       </c>
       <c r="O11" t="n">
-        <v>170.1851583102183</v>
+        <v>23.72136057081217</v>
       </c>
       <c r="P11" t="n">
-        <v>145.249095244978</v>
+        <v>20.24563243411506</v>
       </c>
       <c r="Q11" t="n">
-        <v>109.0760214819837</v>
+        <v>15.20362680796963</v>
       </c>
       <c r="R11" t="n">
-        <v>63.44870770721637</v>
+        <v>8.843836255870379</v>
       </c>
       <c r="S11" t="n">
-        <v>23.01693314832059</v>
+        <v>3.208229059847512</v>
       </c>
       <c r="T11" t="n">
-        <v>4.421574321745402</v>
+        <v>0.6163037941626979</v>
       </c>
       <c r="U11" t="n">
-        <v>0.08080547018609523</v>
+        <v>0.01126311902524633</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5404342266042919</v>
+        <v>0.07532874947132619</v>
       </c>
       <c r="H12" t="n">
-        <v>5.219456872730925</v>
+        <v>0.7275171330520188</v>
       </c>
       <c r="I12" t="n">
-        <v>18.60705560896356</v>
+        <v>2.593555628727678</v>
       </c>
       <c r="J12" t="n">
-        <v>51.05918278632918</v>
+        <v>7.11691487877999</v>
       </c>
       <c r="K12" t="n">
-        <v>87.26827596881674</v>
+        <v>12.16394109335884</v>
       </c>
       <c r="L12" t="n">
-        <v>117.3429666142345</v>
+        <v>16.35591992358773</v>
       </c>
       <c r="M12" t="n">
-        <v>136.9337073286401</v>
+        <v>19.0865870919233</v>
       </c>
       <c r="N12" t="n">
-        <v>140.5579351026662</v>
+        <v>19.59175225833409</v>
       </c>
       <c r="O12" t="n">
-        <v>128.5830503973817</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P12" t="n">
-        <v>103.1992340258669</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q12" t="n">
-        <v>68.9859549609268</v>
+        <v>9.615648792164375</v>
       </c>
       <c r="R12" t="n">
-        <v>33.55432856057175</v>
+        <v>4.676990252263569</v>
       </c>
       <c r="S12" t="n">
-        <v>10.03832872661919</v>
+        <v>1.399198482504676</v>
       </c>
       <c r="T12" t="n">
-        <v>2.178329185304141</v>
+        <v>0.3036277226497752</v>
       </c>
       <c r="U12" t="n">
-        <v>0.03555488332922974</v>
+        <v>0.004955838781008304</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4530819012227525</v>
+        <v>0.06315309310006206</v>
       </c>
       <c r="H13" t="n">
-        <v>4.028309994507748</v>
+        <v>0.5614884095623703</v>
       </c>
       <c r="I13" t="n">
-        <v>13.6254084476806</v>
+        <v>1.899185745227322</v>
       </c>
       <c r="J13" t="n">
-        <v>32.0328904164486</v>
+        <v>4.464923682174388</v>
       </c>
       <c r="K13" t="n">
-        <v>52.63987906933433</v>
+        <v>7.337241180170845</v>
       </c>
       <c r="L13" t="n">
-        <v>67.36092193269906</v>
+        <v>9.389142586894684</v>
       </c>
       <c r="M13" t="n">
-        <v>71.02264747985383</v>
+        <v>9.899534402948818</v>
       </c>
       <c r="N13" t="n">
-        <v>69.33388766620544</v>
+        <v>9.664145601394049</v>
       </c>
       <c r="O13" t="n">
-        <v>64.04106727464873</v>
+        <v>8.926402650179686</v>
       </c>
       <c r="P13" t="n">
-        <v>54.79819648970452</v>
+        <v>7.638079550938413</v>
       </c>
       <c r="Q13" t="n">
-        <v>37.9394308378434</v>
+        <v>5.288210368587925</v>
       </c>
       <c r="R13" t="n">
-        <v>20.37220984952485</v>
+        <v>2.839592713390063</v>
       </c>
       <c r="S13" t="n">
-        <v>7.895981860400148</v>
+        <v>1.100586177025627</v>
       </c>
       <c r="T13" t="n">
-        <v>1.935895396133579</v>
+        <v>0.2698359432457196</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0247135582485138</v>
+        <v>0.003444714169094298</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.01006837732619</v>
+        <v>1.309332382889891</v>
       </c>
       <c r="H14" t="n">
-        <v>10.34436276929185</v>
+        <v>13.4092002662711</v>
       </c>
       <c r="I14" t="n">
-        <v>38.94066111686799</v>
+        <v>50.47803669136259</v>
       </c>
       <c r="J14" t="n">
-        <v>85.72829094008883</v>
+        <v>111.127949332301</v>
       </c>
       <c r="K14" t="n">
-        <v>128.4844853523065</v>
+        <v>166.5519891000302</v>
       </c>
       <c r="L14" t="n">
-        <v>159.3963654549029</v>
+        <v>206.6224700128967</v>
       </c>
       <c r="M14" t="n">
-        <v>177.3591689601776</v>
+        <v>229.9073097771148</v>
       </c>
       <c r="N14" t="n">
-        <v>180.2290257372556</v>
+        <v>233.6274504100007</v>
       </c>
       <c r="O14" t="n">
-        <v>170.1851583102183</v>
+        <v>220.6077765276394</v>
       </c>
       <c r="P14" t="n">
-        <v>145.249095244978</v>
+        <v>188.2836333250451</v>
       </c>
       <c r="Q14" t="n">
-        <v>109.0760214819837</v>
+        <v>141.3931673628009</v>
       </c>
       <c r="R14" t="n">
-        <v>63.44870770721636</v>
+        <v>82.24735029670721</v>
       </c>
       <c r="S14" t="n">
-        <v>23.01693314832059</v>
+        <v>29.83641167510343</v>
       </c>
       <c r="T14" t="n">
-        <v>4.421574321745401</v>
+        <v>5.731602506100502</v>
       </c>
       <c r="U14" t="n">
-        <v>0.08080547018609521</v>
+        <v>0.1047465906311913</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5404342266042919</v>
+        <v>0.7005545858075495</v>
       </c>
       <c r="H15" t="n">
-        <v>5.219456872730924</v>
+        <v>6.765882447141334</v>
       </c>
       <c r="I15" t="n">
-        <v>18.60705560896356</v>
+        <v>24.11997148504063</v>
       </c>
       <c r="J15" t="n">
-        <v>51.05918278632917</v>
+        <v>66.18704531965099</v>
       </c>
       <c r="K15" t="n">
-        <v>87.26827596881672</v>
+        <v>113.1242025687568</v>
       </c>
       <c r="L15" t="n">
-        <v>117.3429666142345</v>
+        <v>152.1094507473804</v>
       </c>
       <c r="M15" t="n">
-        <v>136.9337073286401</v>
+        <v>177.5045544829041</v>
       </c>
       <c r="N15" t="n">
-        <v>140.5579351026662</v>
+        <v>182.2025718587802</v>
       </c>
       <c r="O15" t="n">
-        <v>128.5830503973817</v>
+        <v>166.6797570890445</v>
       </c>
       <c r="P15" t="n">
-        <v>103.1992340258669</v>
+        <v>133.7751998109171</v>
       </c>
       <c r="Q15" t="n">
-        <v>68.9859549609268</v>
+        <v>89.4251783567672</v>
       </c>
       <c r="R15" t="n">
-        <v>33.55432856057175</v>
+        <v>43.49583647671787</v>
       </c>
       <c r="S15" t="n">
-        <v>10.03832872661919</v>
+        <v>13.01249417059197</v>
       </c>
       <c r="T15" t="n">
-        <v>2.17832918530414</v>
+        <v>2.823726598057622</v>
       </c>
       <c r="U15" t="n">
-        <v>0.03555488332922974</v>
+        <v>0.0460891174873388</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4530819012227525</v>
+        <v>0.5873214315872898</v>
       </c>
       <c r="H16" t="n">
-        <v>4.028309994507748</v>
+        <v>5.22182145538518</v>
       </c>
       <c r="I16" t="n">
-        <v>13.6254084476806</v>
+        <v>17.66235723355232</v>
       </c>
       <c r="J16" t="n">
-        <v>32.0328904164486</v>
+        <v>41.52362521322139</v>
       </c>
       <c r="K16" t="n">
-        <v>52.63987906933433</v>
+        <v>68.23607177895965</v>
       </c>
       <c r="L16" t="n">
-        <v>67.36092193269906</v>
+        <v>87.3186790198049</v>
       </c>
       <c r="M16" t="n">
-        <v>71.02264747985382</v>
+        <v>92.06530404417852</v>
       </c>
       <c r="N16" t="n">
-        <v>69.33388766620544</v>
+        <v>89.87619689008051</v>
       </c>
       <c r="O16" t="n">
-        <v>64.04106727464871</v>
+        <v>83.01521471199258</v>
       </c>
       <c r="P16" t="n">
-        <v>54.79819648970452</v>
+        <v>71.03385750761181</v>
       </c>
       <c r="Q16" t="n">
-        <v>37.9394308378434</v>
+        <v>49.18016096682297</v>
       </c>
       <c r="R16" t="n">
-        <v>20.37220984952485</v>
+        <v>26.40810727846122</v>
       </c>
       <c r="S16" t="n">
-        <v>7.895981860400147</v>
+        <v>10.23541076684395</v>
       </c>
       <c r="T16" t="n">
-        <v>1.935895396133578</v>
+        <v>2.509464298600237</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0247135582485138</v>
+        <v>0.03203571445021584</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.01006837732619</v>
+        <v>1.309332382889892</v>
       </c>
       <c r="H17" t="n">
-        <v>10.34436276929185</v>
+        <v>13.40920026627111</v>
       </c>
       <c r="I17" t="n">
-        <v>38.940661116868</v>
+        <v>50.4780366913626</v>
       </c>
       <c r="J17" t="n">
-        <v>85.72829094008884</v>
+        <v>111.1279493323011</v>
       </c>
       <c r="K17" t="n">
-        <v>128.4844853523065</v>
+        <v>166.5519891000302</v>
       </c>
       <c r="L17" t="n">
-        <v>159.3963654549029</v>
+        <v>206.6224700128968</v>
       </c>
       <c r="M17" t="n">
-        <v>177.3591689601776</v>
+        <v>229.9073097771149</v>
       </c>
       <c r="N17" t="n">
-        <v>180.2290257372556</v>
+        <v>233.6274504100008</v>
       </c>
       <c r="O17" t="n">
-        <v>170.1851583102183</v>
+        <v>220.6077765276394</v>
       </c>
       <c r="P17" t="n">
-        <v>145.249095244978</v>
+        <v>188.2836333250452</v>
       </c>
       <c r="Q17" t="n">
-        <v>109.0760214819837</v>
+        <v>141.3931673628009</v>
       </c>
       <c r="R17" t="n">
-        <v>63.44870770721637</v>
+        <v>82.24735029670724</v>
       </c>
       <c r="S17" t="n">
-        <v>23.01693314832059</v>
+        <v>29.83641167510344</v>
       </c>
       <c r="T17" t="n">
-        <v>4.421574321745402</v>
+        <v>5.731602506100504</v>
       </c>
       <c r="U17" t="n">
-        <v>0.08080547018609523</v>
+        <v>0.1047465906311913</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5404342266042919</v>
+        <v>0.7005545858075498</v>
       </c>
       <c r="H18" t="n">
-        <v>5.219456872730925</v>
+        <v>6.765882447141337</v>
       </c>
       <c r="I18" t="n">
-        <v>18.60705560896356</v>
+        <v>24.11997148504064</v>
       </c>
       <c r="J18" t="n">
-        <v>51.05918278632918</v>
+        <v>66.18704531965102</v>
       </c>
       <c r="K18" t="n">
-        <v>87.26827596881674</v>
+        <v>113.1242025687568</v>
       </c>
       <c r="L18" t="n">
-        <v>117.3429666142345</v>
+        <v>152.1094507473805</v>
       </c>
       <c r="M18" t="n">
-        <v>136.9337073286401</v>
+        <v>177.5045544829041</v>
       </c>
       <c r="N18" t="n">
-        <v>140.5579351026662</v>
+        <v>182.2025718587802</v>
       </c>
       <c r="O18" t="n">
-        <v>128.5830503973817</v>
+        <v>166.6797570890445</v>
       </c>
       <c r="P18" t="n">
-        <v>103.1992340258669</v>
+        <v>133.7751998109171</v>
       </c>
       <c r="Q18" t="n">
-        <v>68.9859549609268</v>
+        <v>89.42517835676723</v>
       </c>
       <c r="R18" t="n">
-        <v>33.55432856057175</v>
+        <v>43.49583647671788</v>
       </c>
       <c r="S18" t="n">
-        <v>10.03832872661919</v>
+        <v>13.01249417059198</v>
       </c>
       <c r="T18" t="n">
-        <v>2.178329185304141</v>
+        <v>2.823726598057623</v>
       </c>
       <c r="U18" t="n">
-        <v>0.03555488332922974</v>
+        <v>0.04608911748733882</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4530819012227525</v>
+        <v>0.58732143158729</v>
       </c>
       <c r="H19" t="n">
-        <v>4.028309994507748</v>
+        <v>5.221821455385182</v>
       </c>
       <c r="I19" t="n">
-        <v>13.6254084476806</v>
+        <v>17.66235723355233</v>
       </c>
       <c r="J19" t="n">
-        <v>32.0328904164486</v>
+        <v>41.5236252132214</v>
       </c>
       <c r="K19" t="n">
-        <v>52.63987906933433</v>
+        <v>68.23607177895968</v>
       </c>
       <c r="L19" t="n">
-        <v>67.36092193269906</v>
+        <v>87.31867901980493</v>
       </c>
       <c r="M19" t="n">
-        <v>71.02264747985383</v>
+        <v>92.06530404417855</v>
       </c>
       <c r="N19" t="n">
-        <v>69.33388766620544</v>
+        <v>89.87619689008054</v>
       </c>
       <c r="O19" t="n">
-        <v>64.04106727464873</v>
+        <v>83.01521471199261</v>
       </c>
       <c r="P19" t="n">
-        <v>54.79819648970452</v>
+        <v>71.03385750761184</v>
       </c>
       <c r="Q19" t="n">
-        <v>37.9394308378434</v>
+        <v>49.18016096682299</v>
       </c>
       <c r="R19" t="n">
-        <v>20.37220984952485</v>
+        <v>26.40810727846123</v>
       </c>
       <c r="S19" t="n">
-        <v>7.895981860400148</v>
+        <v>10.23541076684395</v>
       </c>
       <c r="T19" t="n">
-        <v>1.935895396133579</v>
+        <v>2.509464298600238</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0247135582485138</v>
+        <v>0.03203571445021586</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.01006837732619</v>
+        <v>1.309332382889892</v>
       </c>
       <c r="H20" t="n">
-        <v>10.34436276929185</v>
+        <v>13.40920026627111</v>
       </c>
       <c r="I20" t="n">
-        <v>38.940661116868</v>
+        <v>50.4780366913626</v>
       </c>
       <c r="J20" t="n">
-        <v>85.72829094008884</v>
+        <v>111.1279493323011</v>
       </c>
       <c r="K20" t="n">
-        <v>128.4844853523065</v>
+        <v>166.5519891000302</v>
       </c>
       <c r="L20" t="n">
-        <v>159.3963654549029</v>
+        <v>206.6224700128968</v>
       </c>
       <c r="M20" t="n">
-        <v>177.3591689601776</v>
+        <v>229.9073097771149</v>
       </c>
       <c r="N20" t="n">
-        <v>180.2290257372556</v>
+        <v>233.6274504100008</v>
       </c>
       <c r="O20" t="n">
-        <v>170.1851583102183</v>
+        <v>220.6077765276394</v>
       </c>
       <c r="P20" t="n">
-        <v>145.249095244978</v>
+        <v>188.2836333250452</v>
       </c>
       <c r="Q20" t="n">
-        <v>109.0760214819837</v>
+        <v>141.3931673628009</v>
       </c>
       <c r="R20" t="n">
-        <v>63.44870770721637</v>
+        <v>82.24735029670724</v>
       </c>
       <c r="S20" t="n">
-        <v>23.01693314832059</v>
+        <v>29.83641167510344</v>
       </c>
       <c r="T20" t="n">
-        <v>4.421574321745402</v>
+        <v>5.731602506100504</v>
       </c>
       <c r="U20" t="n">
-        <v>0.08080547018609523</v>
+        <v>0.1047465906311913</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5404342266042919</v>
+        <v>0.7005545858075498</v>
       </c>
       <c r="H21" t="n">
-        <v>5.219456872730925</v>
+        <v>6.765882447141337</v>
       </c>
       <c r="I21" t="n">
-        <v>18.60705560896356</v>
+        <v>24.11997148504064</v>
       </c>
       <c r="J21" t="n">
-        <v>51.05918278632918</v>
+        <v>66.18704531965102</v>
       </c>
       <c r="K21" t="n">
-        <v>87.26827596881674</v>
+        <v>113.1242025687568</v>
       </c>
       <c r="L21" t="n">
-        <v>117.3429666142345</v>
+        <v>152.1094507473805</v>
       </c>
       <c r="M21" t="n">
-        <v>136.9337073286401</v>
+        <v>177.5045544829041</v>
       </c>
       <c r="N21" t="n">
-        <v>140.5579351026662</v>
+        <v>182.2025718587802</v>
       </c>
       <c r="O21" t="n">
-        <v>128.5830503973817</v>
+        <v>166.6797570890445</v>
       </c>
       <c r="P21" t="n">
-        <v>103.1992340258669</v>
+        <v>133.7751998109171</v>
       </c>
       <c r="Q21" t="n">
-        <v>68.9859549609268</v>
+        <v>89.42517835676723</v>
       </c>
       <c r="R21" t="n">
-        <v>33.55432856057175</v>
+        <v>43.49583647671788</v>
       </c>
       <c r="S21" t="n">
-        <v>10.03832872661919</v>
+        <v>13.01249417059198</v>
       </c>
       <c r="T21" t="n">
-        <v>2.178329185304141</v>
+        <v>2.823726598057623</v>
       </c>
       <c r="U21" t="n">
-        <v>0.03555488332922974</v>
+        <v>0.04608911748733882</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4530819012227525</v>
+        <v>0.58732143158729</v>
       </c>
       <c r="H22" t="n">
-        <v>4.028309994507748</v>
+        <v>5.221821455385182</v>
       </c>
       <c r="I22" t="n">
-        <v>13.6254084476806</v>
+        <v>17.66235723355233</v>
       </c>
       <c r="J22" t="n">
-        <v>32.0328904164486</v>
+        <v>41.5236252132214</v>
       </c>
       <c r="K22" t="n">
-        <v>52.63987906933433</v>
+        <v>68.23607177895968</v>
       </c>
       <c r="L22" t="n">
-        <v>67.36092193269906</v>
+        <v>87.31867901980493</v>
       </c>
       <c r="M22" t="n">
-        <v>71.02264747985383</v>
+        <v>92.06530404417855</v>
       </c>
       <c r="N22" t="n">
-        <v>69.33388766620544</v>
+        <v>89.87619689008054</v>
       </c>
       <c r="O22" t="n">
-        <v>64.04106727464873</v>
+        <v>83.01521471199261</v>
       </c>
       <c r="P22" t="n">
-        <v>54.79819648970452</v>
+        <v>71.03385750761184</v>
       </c>
       <c r="Q22" t="n">
-        <v>37.9394308378434</v>
+        <v>49.18016096682299</v>
       </c>
       <c r="R22" t="n">
-        <v>20.37220984952485</v>
+        <v>26.40810727846123</v>
       </c>
       <c r="S22" t="n">
-        <v>7.895981860400148</v>
+        <v>10.23541076684395</v>
       </c>
       <c r="T22" t="n">
-        <v>1.935895396133579</v>
+        <v>2.509464298600238</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0247135582485138</v>
+        <v>0.03203571445021586</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33411,13 +33411,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H32" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
@@ -33435,22 +33435,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O32" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P32" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q32" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S32" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I33" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33523,16 +33523,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S33" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T33" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I34" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J34" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L34" t="n">
         <v>101.2724571246924</v>
@@ -33593,13 +33593,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P34" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R34" t="n">
         <v>30.62819939701163</v>
@@ -33608,7 +33608,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T34" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U34" t="n">
         <v>0.0371551145131561</v>
@@ -33648,13 +33648,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H35" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
@@ -33672,22 +33672,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O35" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P35" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q35" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S35" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I36" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33760,16 +33760,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S36" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T36" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I37" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J37" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L37" t="n">
         <v>101.2724571246924</v>
@@ -33830,13 +33830,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P37" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R37" t="n">
         <v>30.62819939701163</v>
@@ -33845,7 +33845,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T37" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U37" t="n">
         <v>0.0371551145131561</v>
@@ -33885,13 +33885,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H38" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
@@ -33909,22 +33909,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O38" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P38" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q38" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S38" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I39" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33997,16 +33997,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S39" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T39" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I40" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J40" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L40" t="n">
         <v>101.2724571246924</v>
@@ -34067,13 +34067,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P40" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R40" t="n">
         <v>30.62819939701163</v>
@@ -34082,7 +34082,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T40" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U40" t="n">
         <v>0.0371551145131561</v>
@@ -34122,13 +34122,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
@@ -34146,22 +34146,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q41" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S41" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I42" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34234,16 +34234,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T42" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J43" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34304,13 +34304,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R43" t="n">
         <v>30.62819939701163</v>
@@ -34319,7 +34319,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U43" t="n">
         <v>0.0371551145131561</v>
@@ -34359,13 +34359,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
@@ -34383,22 +34383,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q44" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S44" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I45" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34471,16 +34471,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T45" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J46" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34541,13 +34541,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R46" t="n">
         <v>30.62819939701163</v>
@@ -34556,7 +34556,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U46" t="n">
         <v>0.0371551145131561</v>
@@ -34783,16 +34783,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O3" t="n">
-        <v>91.0829537758999</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
@@ -35020,13 +35020,13 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N6" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35260,13 +35260,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O9" t="n">
-        <v>169.9067907798016</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.77900158547632</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>232.5400468784907</v>
+        <v>121.9644487350302</v>
       </c>
       <c r="L11" t="n">
-        <v>341.2911650353661</v>
+        <v>204.1123577751702</v>
       </c>
       <c r="M11" t="n">
-        <v>396.5264692257373</v>
+        <v>243.8886146223321</v>
       </c>
       <c r="N11" t="n">
-        <v>388.1628865526488</v>
+        <v>233.0551918837966</v>
       </c>
       <c r="O11" t="n">
-        <v>320.887128151277</v>
+        <v>174.4233304118708</v>
       </c>
       <c r="P11" t="n">
-        <v>235.8148076611911</v>
+        <v>110.8113448503282</v>
       </c>
       <c r="Q11" t="n">
-        <v>99.08532226743893</v>
+        <v>5.212927593424824</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>50.31259146007132</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>213.8920740070363</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>349.6289321378195</v>
+        <v>248.6418854471727</v>
       </c>
       <c r="M12" t="n">
-        <v>460.5047371566217</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="N12" t="n">
-        <v>488.5585973628865</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="O12" t="n">
-        <v>379.8491252296668</v>
+        <v>269.1887005891756</v>
       </c>
       <c r="P12" t="n">
-        <v>145.340770003524</v>
+        <v>23.3246024308939</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>30.37038724345148</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>94.9509471930152</v>
+        <v>36.97916784721082</v>
       </c>
       <c r="M13" t="n">
-        <v>110.6065244416944</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="N13" t="n">
-        <v>113.466060045434</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="O13" t="n">
-        <v>88.6261951886884</v>
+        <v>33.51153056421936</v>
       </c>
       <c r="P13" t="n">
-        <v>52.07675575459801</v>
+        <v>4.916638815831901</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>73.77900158547631</v>
+        <v>99.1786599776885</v>
       </c>
       <c r="K14" t="n">
-        <v>232.5400468784907</v>
+        <v>270.6075506262143</v>
       </c>
       <c r="L14" t="n">
-        <v>341.2911650353661</v>
+        <v>388.5172695933599</v>
       </c>
       <c r="M14" t="n">
-        <v>396.5264692257373</v>
+        <v>449.0746100426746</v>
       </c>
       <c r="N14" t="n">
-        <v>388.1628865526488</v>
+        <v>441.561311225394</v>
       </c>
       <c r="O14" t="n">
-        <v>320.8871281512769</v>
+        <v>371.309746368698</v>
       </c>
       <c r="P14" t="n">
-        <v>235.8148076611911</v>
+        <v>278.8493457412583</v>
       </c>
       <c r="Q14" t="n">
-        <v>99.08532226743891</v>
+        <v>131.402468148256</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>50.31259146007132</v>
+        <v>65.44045399339313</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>239.7480006069764</v>
       </c>
       <c r="L15" t="n">
-        <v>349.6289321378195</v>
+        <v>384.3954162709654</v>
       </c>
       <c r="M15" t="n">
-        <v>460.5047371566217</v>
+        <v>501.0755843108857</v>
       </c>
       <c r="N15" t="n">
-        <v>488.5585973628865</v>
+        <v>503.6321135834699</v>
       </c>
       <c r="O15" t="n">
-        <v>379.8491252296668</v>
+        <v>417.9458319213296</v>
       </c>
       <c r="P15" t="n">
-        <v>220.1513753998062</v>
+        <v>318.263561036524</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.0814686107544</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>30.37038724345148</v>
+        <v>45.9665799530768</v>
       </c>
       <c r="L16" t="n">
-        <v>94.9509471930152</v>
+        <v>114.908704280121</v>
       </c>
       <c r="M16" t="n">
-        <v>110.6065244416944</v>
+        <v>131.6491810060191</v>
       </c>
       <c r="N16" t="n">
-        <v>113.466060045434</v>
+        <v>134.0083692693091</v>
       </c>
       <c r="O16" t="n">
-        <v>88.62619518868838</v>
+        <v>107.6003426260323</v>
       </c>
       <c r="P16" t="n">
-        <v>52.076755754598</v>
+        <v>68.3124167725053</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>73.77900158547632</v>
+        <v>99.17865997768854</v>
       </c>
       <c r="K17" t="n">
-        <v>232.5400468784907</v>
+        <v>270.6075506262144</v>
       </c>
       <c r="L17" t="n">
-        <v>341.2911650353661</v>
+        <v>388.51726959336</v>
       </c>
       <c r="M17" t="n">
-        <v>396.5264692257373</v>
+        <v>449.0746100426746</v>
       </c>
       <c r="N17" t="n">
-        <v>388.1628865526488</v>
+        <v>441.5613112253941</v>
       </c>
       <c r="O17" t="n">
-        <v>320.887128151277</v>
+        <v>371.309746368698</v>
       </c>
       <c r="P17" t="n">
-        <v>235.8148076611911</v>
+        <v>278.8493457412583</v>
       </c>
       <c r="Q17" t="n">
-        <v>99.08532226743893</v>
+        <v>131.4024681482561</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>50.31259146007132</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>213.8920740070363</v>
+        <v>239.7480006069765</v>
       </c>
       <c r="L18" t="n">
-        <v>349.6289321378195</v>
+        <v>384.3954162709655</v>
       </c>
       <c r="M18" t="n">
-        <v>460.5047371566217</v>
+        <v>501.0755843108857</v>
       </c>
       <c r="N18" t="n">
-        <v>207.1303035041824</v>
+        <v>530.2032341190004</v>
       </c>
       <c r="O18" t="n">
-        <v>379.8491252296668</v>
+        <v>417.9458319213296</v>
       </c>
       <c r="P18" t="n">
-        <v>287.6875952514739</v>
+        <v>318.263561036524</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.0814686107544</v>
+        <v>38.86933345786267</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>30.37038724345148</v>
+        <v>45.96657995307683</v>
       </c>
       <c r="L19" t="n">
-        <v>94.9509471930152</v>
+        <v>114.9087042801211</v>
       </c>
       <c r="M19" t="n">
-        <v>110.6065244416944</v>
+        <v>131.6491810060191</v>
       </c>
       <c r="N19" t="n">
-        <v>113.466060045434</v>
+        <v>134.0083692693091</v>
       </c>
       <c r="O19" t="n">
-        <v>88.6261951886884</v>
+        <v>107.6003426260323</v>
       </c>
       <c r="P19" t="n">
-        <v>52.07675575459801</v>
+        <v>68.31241677250533</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>73.77900158547632</v>
+        <v>99.17865997768854</v>
       </c>
       <c r="K20" t="n">
-        <v>232.5400468784907</v>
+        <v>270.6075506262144</v>
       </c>
       <c r="L20" t="n">
-        <v>341.2911650353661</v>
+        <v>388.51726959336</v>
       </c>
       <c r="M20" t="n">
-        <v>396.5264692257373</v>
+        <v>449.0746100426746</v>
       </c>
       <c r="N20" t="n">
-        <v>388.1628865526488</v>
+        <v>441.5613112253941</v>
       </c>
       <c r="O20" t="n">
-        <v>320.887128151277</v>
+        <v>371.309746368698</v>
       </c>
       <c r="P20" t="n">
-        <v>235.8148076611911</v>
+        <v>278.8493457412583</v>
       </c>
       <c r="Q20" t="n">
-        <v>99.08532226743893</v>
+        <v>131.4024681482561</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>50.31259146007132</v>
+        <v>38.8693334578624</v>
       </c>
       <c r="K21" t="n">
-        <v>213.8920740070363</v>
+        <v>239.7480006069765</v>
       </c>
       <c r="L21" t="n">
-        <v>349.6289321378195</v>
+        <v>384.3954162709655</v>
       </c>
       <c r="M21" t="n">
-        <v>460.5047371566217</v>
+        <v>501.0755843108857</v>
       </c>
       <c r="N21" t="n">
-        <v>207.1303035041824</v>
+        <v>530.2032341190004</v>
       </c>
       <c r="O21" t="n">
-        <v>379.8491252296668</v>
+        <v>417.9458319213296</v>
       </c>
       <c r="P21" t="n">
-        <v>287.6875952514739</v>
+        <v>318.263561036524</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.0814686107544</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>30.37038724345148</v>
+        <v>45.96657995307683</v>
       </c>
       <c r="L22" t="n">
-        <v>94.9509471930152</v>
+        <v>114.9087042801211</v>
       </c>
       <c r="M22" t="n">
-        <v>110.6065244416944</v>
+        <v>131.6491810060191</v>
       </c>
       <c r="N22" t="n">
-        <v>113.466060045434</v>
+        <v>134.0083692693091</v>
       </c>
       <c r="O22" t="n">
-        <v>88.6261951886884</v>
+        <v>107.6003426260323</v>
       </c>
       <c r="P22" t="n">
-        <v>52.07675575459801</v>
+        <v>68.31241677250533</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36685,13 +36685,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
         <v>173.8110948137341</v>
@@ -36834,13 +36834,13 @@
         <v>116.937228518131</v>
       </c>
       <c r="K29" t="n">
-        <v>297.2230414343417</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L29" t="n">
         <v>421.5361394435301</v>
       </c>
       <c r="M29" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N29" t="n">
         <v>478.8956552492236</v>
@@ -36922,7 +36922,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
@@ -36931,7 +36931,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37083,10 +37083,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P32" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q32" t="n">
         <v>153.9975062898689</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37162,13 +37162,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P33" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37229,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L34" t="n">
         <v>128.8624823850085</v>
@@ -37244,7 +37244,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P34" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37320,10 +37320,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P35" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q35" t="n">
         <v>153.9975062898689</v>
@@ -37387,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>214.4070918624587</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37399,13 +37399,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P36" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37466,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L37" t="n">
         <v>128.8624823850085</v>
@@ -37481,7 +37481,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P37" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37557,10 +37557,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P38" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q38" t="n">
         <v>153.9975062898689</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37633,16 +37633,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P39" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L40" t="n">
         <v>128.8624823850085</v>
@@ -37718,7 +37718,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P40" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37794,10 +37794,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q41" t="n">
         <v>153.9975062898689</v>
@@ -37870,13 +37870,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932188</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P42" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
         <v>173.8110948137341</v>
@@ -37940,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37955,7 +37955,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.9372285181308</v>
+        <v>116.9372285181304</v>
       </c>
       <c r="K44" t="n">
         <v>297.2230414343419</v>
@@ -38031,10 +38031,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q44" t="n">
         <v>153.9975062898689</v>
@@ -38098,7 +38098,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L45" t="n">
         <v>408.7029475713857</v>
@@ -38110,13 +38110,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P45" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L46" t="n">
         <v>128.8624823850085</v>
@@ -38192,7 +38192,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
